--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
     <sheet name="Ausentismo" sheetId="3" r:id="rId2"/>
     <sheet name="Infonavit" sheetId="4" r:id="rId3"/>
     <sheet name="PensiónAlimenticia" sheetId="5" r:id="rId4"/>
-    <sheet name="EJEMPLOS" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="EJEMPLOS" sheetId="2" r:id="rId5"/>
+    <sheet name="TABLAS" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausentismo!$A$1:$J$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -118,6 +119,235 @@
   <si>
     <t>Aplica_En_Finiquito</t>
   </si>
+  <si>
+    <t>Bono de productividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJEMPLO PARA CARGA DE INCIDENCIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de cargas masivas </t>
+  </si>
+  <si>
+    <t>Debe ir el numero de la empresa</t>
+  </si>
+  <si>
+    <t>Debe ir el numero del empleado</t>
+  </si>
+  <si>
+    <t>Numero de plazos que se daran al renglon, pero en caso de renglones de numero de dias debe ser = 1</t>
+  </si>
+  <si>
+    <t>Será el monto a aplicar en el renglon exeptuando los renglones de dias donde en ese caso sera monto = 0</t>
+  </si>
+  <si>
+    <t>Este contiene el numero de dias que aplica del renglon en caso contrario es = 0</t>
+  </si>
+  <si>
+    <t>Debe ir el numero de renglón a cargar</t>
+  </si>
+  <si>
+    <t>Aquí ira en preferentemente el nombre del renglon para tenerlo como referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = No aplica en finiquito
+1 = Si aplica a finiquito
+</t>
+  </si>
+  <si>
+    <t>EJEMPLO PARA CARGA DE AUSENTISMOS</t>
+  </si>
+  <si>
+    <t>1 Accidente de Trabajo</t>
+  </si>
+  <si>
+    <t>2 Adopción Infante</t>
+  </si>
+  <si>
+    <t>3 Ausentismo fraccionado</t>
+  </si>
+  <si>
+    <t>4 Castigo y Suspension</t>
+  </si>
+  <si>
+    <t>5 Devolucion ausencia justificada</t>
+  </si>
+  <si>
+    <t>6 Enfermedad General</t>
+  </si>
+  <si>
+    <t>7 Enfermedad General Continuidad</t>
+  </si>
+  <si>
+    <t>8 Fallecimiento Padres, Hermanos, Conyugues, Concubina e Hijos</t>
+  </si>
+  <si>
+    <t>9 Faltas Injustificada</t>
+  </si>
+  <si>
+    <t>10 Lactancia</t>
+  </si>
+  <si>
+    <t>11 Matrimonio</t>
+  </si>
+  <si>
+    <t>12 Nacimiento Hijos o Adopción</t>
+  </si>
+  <si>
+    <t>13 Onomastico</t>
+  </si>
+  <si>
+    <t>14 Permiso con Sueldo</t>
+  </si>
+  <si>
+    <t>15 Permiso sin Sueldo</t>
+  </si>
+  <si>
+    <t>16 Post Quirurjico</t>
+  </si>
+  <si>
+    <t>17 Postnatal</t>
+  </si>
+  <si>
+    <t>18 Prenatal</t>
+  </si>
+  <si>
+    <t>19 Retardos</t>
+  </si>
+  <si>
+    <t>20 Riesgo de Trabajo</t>
+  </si>
+  <si>
+    <t>21 Salidas por Negocio</t>
+  </si>
+  <si>
+    <t>TIPOS DE AUSENTISMO</t>
+  </si>
+  <si>
+    <t>Falta injustificada</t>
+  </si>
+  <si>
+    <t>Solo aplica en caso de que sea una incapacidad en caso contrario dejar en blanco</t>
+  </si>
+  <si>
+    <t>Este contiene el numero de dias que aplica el ausentismo</t>
+  </si>
+  <si>
+    <t>DEJAR EN BLANCO</t>
+  </si>
+  <si>
+    <r>
+      <t>Esta referencia sera para diferenciar la carga e identificar cada carga (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DE PREFERENCIA SEA DIFERENTE EN CADA LAYOUT CARGADO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Se debera poner en formato dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que tipo de ausentismo aplicaria</t>
+  </si>
+  <si>
+    <t>1 En cada periodo</t>
+  </si>
+  <si>
+    <t>CR123414</t>
+  </si>
+  <si>
+    <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que tipo de descuento aplicaria</t>
+  </si>
+  <si>
+    <t>1 Cuota fija</t>
+  </si>
+  <si>
+    <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que opcion aplicaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sera el monto mensual a aplicar en caso de cuota fija, en caso de porcentaje sera un numero desde 1.00 a 99.00, en caso de Cuota fija sobre UMA la cantidad de este campo será el factor  </t>
+  </si>
+  <si>
+    <t>EJEMPLO PARA CARGA DE CREDITOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe ir el folio del documento proporcionado </t>
+  </si>
+  <si>
+    <t>2 Porcentaje</t>
+  </si>
+  <si>
+    <t>3 N veces en salario minimo</t>
+  </si>
+  <si>
+    <t>4 Cuota fija sobre UMA</t>
+  </si>
+  <si>
+    <t>TIPO DESCUENTO</t>
+  </si>
+  <si>
+    <t>2 En primer periodo del mes</t>
+  </si>
+  <si>
+    <t>3 En el ultimo periodo del mes</t>
+  </si>
+  <si>
+    <t>DESCONTAR EN</t>
+  </si>
+  <si>
+    <t>APLICA EN</t>
+  </si>
+  <si>
+    <t>340 Nomina</t>
+  </si>
+  <si>
+    <t>341 Finiquito</t>
+  </si>
+  <si>
+    <t>342 Aguinaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monto mensual que se pedira para el credito, en caso de que sea un porcentaje el campo debe quedar  = 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sera el porcentaje a descontar del salario mensual, en caso de que credito sea de cuota fija el campo debe ser = 0 </t>
+  </si>
+  <si>
+    <t>Se esta trabajando para que este campo sea por default para las empresas</t>
+  </si>
+  <si>
+    <t>En caso de que tenga ira el nombre completo de la beneficiaria</t>
+  </si>
+  <si>
+    <t>(Opcional)El numero del banco que se utilizara para el pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Opcional) Sera la sucursal que marque el banco en caso que tenga </t>
+  </si>
+  <si>
+    <t>(Opcional) Numero de tarjeta de vales en caso de aplicar</t>
+  </si>
+  <si>
+    <t>(Opcional) Numero de cuenta de cheques en caso de aplicar</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +393,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +438,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,12 +509,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +556,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -579,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1326,7 @@
   <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +2035,7 @@
   <dimension ref="A1:J1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8584,8 +8913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,32 +9364,628 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>355.94</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>607</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44180</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="15" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="20">
+        <v>44180</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="25" customFormat="1" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>4</v>
+      </c>
+      <c r="B18" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A16:N16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
     <sheet name="Ausentismo" sheetId="3" r:id="rId2"/>
     <sheet name="Infonavit" sheetId="4" r:id="rId3"/>
     <sheet name="PensiónAlimenticia" sheetId="5" r:id="rId4"/>
-    <sheet name="EJEMPLOS" sheetId="2" r:id="rId5"/>
-    <sheet name="TABLAS" sheetId="6" r:id="rId6"/>
+    <sheet name="TABLAS" sheetId="6" r:id="rId5"/>
+    <sheet name="EJEMPLOS" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausentismo!$A$1:$J$1</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -268,16 +268,10 @@
     <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que tipo de ausentismo aplicaria</t>
   </si>
   <si>
-    <t>1 En cada periodo</t>
-  </si>
-  <si>
     <t>CR123414</t>
   </si>
   <si>
     <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que tipo de descuento aplicaria</t>
-  </si>
-  <si>
-    <t>1 Cuota fija</t>
   </si>
   <si>
     <t>Se tiene una pestaña llamada tablas al lado derecho para revizar que opcion aplicaria</t>
@@ -292,22 +286,7 @@
     <t xml:space="preserve">Debe ir el folio del documento proporcionado </t>
   </si>
   <si>
-    <t>2 Porcentaje</t>
-  </si>
-  <si>
-    <t>3 N veces en salario minimo</t>
-  </si>
-  <si>
-    <t>4 Cuota fija sobre UMA</t>
-  </si>
-  <si>
     <t>TIPO DESCUENTO</t>
-  </si>
-  <si>
-    <t>2 En primer periodo del mes</t>
-  </si>
-  <si>
-    <t>3 En el ultimo periodo del mes</t>
   </si>
   <si>
     <t>DESCONTAR EN</t>
@@ -348,6 +327,36 @@
   <si>
     <t>(Opcional) Numero de cuenta de cheques en caso de aplicar</t>
   </si>
+  <si>
+    <t xml:space="preserve">Para dudas o aclaraciones con Oscar Mejia - Sistemas </t>
+  </si>
+  <si>
+    <t>289 Cuota fija</t>
+  </si>
+  <si>
+    <t>290 Porcentaje</t>
+  </si>
+  <si>
+    <t>291 N veces en salario minimo</t>
+  </si>
+  <si>
+    <t>292 Cuota fija sobre UMA</t>
+  </si>
+  <si>
+    <t>314 En cada periodo</t>
+  </si>
+  <si>
+    <t>315 En primer periodo del mes</t>
+  </si>
+  <si>
+    <t>316 En el ultimo periodo del mes</t>
+  </si>
+  <si>
+    <t>EJEMPLO PARA CARGA DE PENSIONES ALIMENTICIAS</t>
+  </si>
+  <si>
+    <t>298 Cuota fija</t>
+  </si>
 </sst>
 </file>
 
@@ -356,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +433,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,14 +605,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9364,10 +9391,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9387,605 +9587,451 @@
     <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B4" s="15">
         <v>10000</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="15">
         <v>355.94</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="15">
         <v>607</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H4" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B9" s="16">
         <v>10000</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="17">
         <v>44180</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="16">
         <v>0</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J10" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="15" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B14" s="15">
         <v>10000</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="20">
+        <v>44180</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="20">
-        <v>44180</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="F15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="24" customFormat="1" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>4</v>
+      </c>
+      <c r="B19" s="24">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="22" t="s">
+      <c r="H19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="N19" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="25" customFormat="1" ht="90.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>4</v>
-      </c>
-      <c r="B18" s="25">
-        <v>10000</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A16:N16"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B968A41-FF9B-4157-9D9C-F319795EC172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="676" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
     <sheet name="Ausentismo" sheetId="3" r:id="rId2"/>
     <sheet name="Infonavit" sheetId="4" r:id="rId3"/>
     <sheet name="PensiónAlimenticia" sheetId="5" r:id="rId4"/>
-    <sheet name="TABLAS" sheetId="6" r:id="rId5"/>
-    <sheet name="EJEMPLOS" sheetId="2" r:id="rId6"/>
+    <sheet name="Vacaciones" sheetId="7" r:id="rId5"/>
+    <sheet name="TABLAS" sheetId="6" r:id="rId6"/>
+    <sheet name="EJEMPLOS" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausentismo!$A$1:$J$1</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -357,11 +359,32 @@
   <si>
     <t>298 Cuota fija</t>
   </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Fecha_inicio</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>EJEMPLO PARA CARGA DE VACACIONES</t>
+  </si>
+  <si>
+    <t>Este es un campo opcional y se puede utilizar en caso de tenerla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ggatada de vatos </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -435,7 +458,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,11 +635,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,11 +958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,17 +1370,18 @@
       <c r="D122" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2078,7 @@
       <c r="D217" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2058,11 +2086,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8937,11 +8966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9390,11 +9420,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44237</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9562,12 +9666,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9604,18 +9709,18 @@
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -9705,18 +9810,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -9811,18 +9916,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -9918,22 +10023,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -10023,13 +10128,74 @@
         <v>68</v>
       </c>
     </row>
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="24" customFormat="1" ht="102.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>4</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="27">
+        <v>44235</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="24">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A17:N17"/>
-    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
     <sheet name="Ausentismo" sheetId="3" r:id="rId2"/>
     <sheet name="Infonavit" sheetId="4" r:id="rId3"/>
     <sheet name="PensiónAlimenticia" sheetId="5" r:id="rId4"/>
-    <sheet name="TABLAS" sheetId="6" r:id="rId5"/>
-    <sheet name="EJEMPLOS" sheetId="2" r:id="rId6"/>
+    <sheet name="Vacaciones" sheetId="7" r:id="rId5"/>
+    <sheet name="TABLAS" sheetId="6" r:id="rId6"/>
+    <sheet name="EJEMPLOS" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausentismo!$A$1:$J$1</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -356,6 +357,24 @@
   </si>
   <si>
     <t>298 Cuota fija</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Fecha_inicio</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>EJEMPLO PARA CARGA DE VACACIONES</t>
+  </si>
+  <si>
+    <t>Este es un campo opcional y se puede utilizar en caso de tenerla</t>
   </si>
 </sst>
 </file>
@@ -435,7 +454,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,6 +631,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8940,7 +8962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -9391,10 +9413,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9562,12 +9639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9588,34 +9665,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -9705,18 +9782,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -9811,18 +9888,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -9918,22 +9995,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -10023,13 +10100,74 @@
         <v>68</v>
       </c>
     </row>
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="24" customFormat="1" ht="102.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>4</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10000</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="27">
+        <v>44235</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="24">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A17:N17"/>
-    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\Server\Seri\Payroll\Content\FilesCargaMasivaIncidencias\FormatoDeIncidencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="348">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Certificado IMSS</t>
-  </si>
-  <si>
-    <t>Fecha certificado</t>
   </si>
   <si>
     <t>Tipo de Descuento</t>
@@ -375,6 +372,732 @@
   </si>
   <si>
     <t>Este es un campo opcional y se puede utilizar en caso de tenerla</t>
+  </si>
+  <si>
+    <t>Fecha_Aplicacion</t>
+  </si>
+  <si>
+    <t>Comentarios_IMSS</t>
+  </si>
+  <si>
+    <t>Cometarios del certificado emitido por IMSS (Contenido opcional)</t>
+  </si>
+  <si>
+    <t>WX255248</t>
+  </si>
+  <si>
+    <t>WL345719</t>
+  </si>
+  <si>
+    <t>MA244018</t>
+  </si>
+  <si>
+    <t>XT468537</t>
+  </si>
+  <si>
+    <t>WX902663</t>
+  </si>
+  <si>
+    <t>WX902847</t>
+  </si>
+  <si>
+    <t>VQ416108</t>
+  </si>
+  <si>
+    <t>VQ416711</t>
+  </si>
+  <si>
+    <t>WX902820</t>
+  </si>
+  <si>
+    <t>ME678100</t>
+  </si>
+  <si>
+    <t>MC647485</t>
+  </si>
+  <si>
+    <t>VO179517</t>
+  </si>
+  <si>
+    <t>MA270076</t>
+  </si>
+  <si>
+    <t>VT014201</t>
+  </si>
+  <si>
+    <t>WS967360</t>
+  </si>
+  <si>
+    <t>UA155013</t>
+  </si>
+  <si>
+    <t>VN983595</t>
+  </si>
+  <si>
+    <t>VA196880</t>
+  </si>
+  <si>
+    <t>VJ209778</t>
+  </si>
+  <si>
+    <t>WT207871</t>
+  </si>
+  <si>
+    <t>UA143367</t>
+  </si>
+  <si>
+    <t>VT296637</t>
+  </si>
+  <si>
+    <t>VK107336</t>
+  </si>
+  <si>
+    <t>VG992263</t>
+  </si>
+  <si>
+    <t>VQ346871</t>
+  </si>
+  <si>
+    <t>WM349309</t>
+  </si>
+  <si>
+    <t>VS830938</t>
+  </si>
+  <si>
+    <t>MD766717</t>
+  </si>
+  <si>
+    <t>MD781927</t>
+  </si>
+  <si>
+    <t>VQ828193</t>
+  </si>
+  <si>
+    <t>WL346873</t>
+  </si>
+  <si>
+    <t>UA150165</t>
+  </si>
+  <si>
+    <t>VB690197</t>
+  </si>
+  <si>
+    <t>VK485917</t>
+  </si>
+  <si>
+    <t>VK486041</t>
+  </si>
+  <si>
+    <t>VK486807</t>
+  </si>
+  <si>
+    <t>MD781789</t>
+  </si>
+  <si>
+    <t>UA153955</t>
+  </si>
+  <si>
+    <t>VS372246</t>
+  </si>
+  <si>
+    <t>WY207686</t>
+  </si>
+  <si>
+    <t>ZZ522182</t>
+  </si>
+  <si>
+    <t>WI804854</t>
+  </si>
+  <si>
+    <t>VU812781</t>
+  </si>
+  <si>
+    <t>MC499711</t>
+  </si>
+  <si>
+    <t>MC499216</t>
+  </si>
+  <si>
+    <t>WN657381</t>
+  </si>
+  <si>
+    <t>VV291577</t>
+  </si>
+  <si>
+    <t>WV479688</t>
+  </si>
+  <si>
+    <t>WV479913</t>
+  </si>
+  <si>
+    <t>WZ416565</t>
+  </si>
+  <si>
+    <t>XY269468</t>
+  </si>
+  <si>
+    <t>XY269497</t>
+  </si>
+  <si>
+    <t>XY269514</t>
+  </si>
+  <si>
+    <t>ME892790</t>
+  </si>
+  <si>
+    <t>MF951344</t>
+  </si>
+  <si>
+    <t>VP543268</t>
+  </si>
+  <si>
+    <t>MD808681</t>
+  </si>
+  <si>
+    <t>MA260828</t>
+  </si>
+  <si>
+    <t>MC499273</t>
+  </si>
+  <si>
+    <t>VN764374</t>
+  </si>
+  <si>
+    <t>WO492577</t>
+  </si>
+  <si>
+    <t>MG498266</t>
+  </si>
+  <si>
+    <t>VG352764</t>
+  </si>
+  <si>
+    <t>XY206717</t>
+  </si>
+  <si>
+    <t>WJ804088</t>
+  </si>
+  <si>
+    <t>VH034563</t>
+  </si>
+  <si>
+    <t>WJ803730</t>
+  </si>
+  <si>
+    <t>XT205475</t>
+  </si>
+  <si>
+    <t>VJ208977</t>
+  </si>
+  <si>
+    <t>VO619524</t>
+  </si>
+  <si>
+    <t>MA264893</t>
+  </si>
+  <si>
+    <t>WW124810</t>
+  </si>
+  <si>
+    <t>UA159612</t>
+  </si>
+  <si>
+    <t>WX753736</t>
+  </si>
+  <si>
+    <t>WP579937</t>
+  </si>
+  <si>
+    <t>WP580145</t>
+  </si>
+  <si>
+    <t>WW483128</t>
+  </si>
+  <si>
+    <t>VP628692</t>
+  </si>
+  <si>
+    <t>VQ471739</t>
+  </si>
+  <si>
+    <t>VJ513754</t>
+  </si>
+  <si>
+    <t>VJ514031</t>
+  </si>
+  <si>
+    <t>WG617258</t>
+  </si>
+  <si>
+    <t>MF044982</t>
+  </si>
+  <si>
+    <t>VR045278</t>
+  </si>
+  <si>
+    <t>XX109259</t>
+  </si>
+  <si>
+    <t>VM150032</t>
+  </si>
+  <si>
+    <t>VM150500</t>
+  </si>
+  <si>
+    <t>WI588025</t>
+  </si>
+  <si>
+    <t>WI588512</t>
+  </si>
+  <si>
+    <t>VK203400</t>
+  </si>
+  <si>
+    <t>VQ211015</t>
+  </si>
+  <si>
+    <t>VQ211499</t>
+  </si>
+  <si>
+    <t>UA146089</t>
+  </si>
+  <si>
+    <t>VP909660</t>
+  </si>
+  <si>
+    <t>MG298404</t>
+  </si>
+  <si>
+    <t>MF491521</t>
+  </si>
+  <si>
+    <t>VR044557</t>
+  </si>
+  <si>
+    <t>VU471548</t>
+  </si>
+  <si>
+    <t>MA274852</t>
+  </si>
+  <si>
+    <t>VT397888</t>
+  </si>
+  <si>
+    <t>MA247057</t>
+  </si>
+  <si>
+    <t>XX109522</t>
+  </si>
+  <si>
+    <t>WM545467</t>
+  </si>
+  <si>
+    <t>WW483113</t>
+  </si>
+  <si>
+    <t>MG530939</t>
+  </si>
+  <si>
+    <t>VA352644</t>
+  </si>
+  <si>
+    <t>MD793216</t>
+  </si>
+  <si>
+    <t>MD793207</t>
+  </si>
+  <si>
+    <t>XR678336</t>
+  </si>
+  <si>
+    <t>WT525062</t>
+  </si>
+  <si>
+    <t>VM801605</t>
+  </si>
+  <si>
+    <t>VM149841</t>
+  </si>
+  <si>
+    <t>UA144252</t>
+  </si>
+  <si>
+    <t>MC706729</t>
+  </si>
+  <si>
+    <t>XY206537</t>
+  </si>
+  <si>
+    <t>ME652316</t>
+  </si>
+  <si>
+    <t>WT525898</t>
+  </si>
+  <si>
+    <t>XM372653</t>
+  </si>
+  <si>
+    <t>XM372678</t>
+  </si>
+  <si>
+    <t>WH324015</t>
+  </si>
+  <si>
+    <t>VP372521</t>
+  </si>
+  <si>
+    <t>WG993698</t>
+  </si>
+  <si>
+    <t>UA143143</t>
+  </si>
+  <si>
+    <t>MA253652</t>
+  </si>
+  <si>
+    <t>WQ976392</t>
+  </si>
+  <si>
+    <t>WQ976644</t>
+  </si>
+  <si>
+    <t>WQ976923</t>
+  </si>
+  <si>
+    <t>VT843274</t>
+  </si>
+  <si>
+    <t>VT843520</t>
+  </si>
+  <si>
+    <t>WX754006</t>
+  </si>
+  <si>
+    <t>ZL067554</t>
+  </si>
+  <si>
+    <t>VC775342</t>
+  </si>
+  <si>
+    <t>VN085597</t>
+  </si>
+  <si>
+    <t>VN085765</t>
+  </si>
+  <si>
+    <t>XX866317</t>
+  </si>
+  <si>
+    <t>XX866679</t>
+  </si>
+  <si>
+    <t>VI627720</t>
+  </si>
+  <si>
+    <t>WC791067</t>
+  </si>
+  <si>
+    <t>MA240957</t>
+  </si>
+  <si>
+    <t>WC790780</t>
+  </si>
+  <si>
+    <t>VP580510</t>
+  </si>
+  <si>
+    <t>XR989079</t>
+  </si>
+  <si>
+    <t>VM303921</t>
+  </si>
+  <si>
+    <t>VG084353</t>
+  </si>
+  <si>
+    <t>MC212211</t>
+  </si>
+  <si>
+    <t>MF738376</t>
+  </si>
+  <si>
+    <t>YC394999</t>
+  </si>
+  <si>
+    <t>XX109467</t>
+  </si>
+  <si>
+    <t>XX109837</t>
+  </si>
+  <si>
+    <t>VV290533</t>
+  </si>
+  <si>
+    <t>VV290800</t>
+  </si>
+  <si>
+    <t>VV291105</t>
+  </si>
+  <si>
+    <t>VE480700</t>
+  </si>
+  <si>
+    <t>VE480326</t>
+  </si>
+  <si>
+    <t>MA276430</t>
+  </si>
+  <si>
+    <t>XY574245</t>
+  </si>
+  <si>
+    <t>VT296678</t>
+  </si>
+  <si>
+    <t>MD792411</t>
+  </si>
+  <si>
+    <t>MD792414</t>
+  </si>
+  <si>
+    <t>MD792419</t>
+  </si>
+  <si>
+    <t>VW440068</t>
+  </si>
+  <si>
+    <t>ME046883</t>
+  </si>
+  <si>
+    <t>VW291200</t>
+  </si>
+  <si>
+    <t>WL160310</t>
+  </si>
+  <si>
+    <t>WL160527</t>
+  </si>
+  <si>
+    <t>WX754015</t>
+  </si>
+  <si>
+    <t>VA715166</t>
+  </si>
+  <si>
+    <t>VA715381</t>
+  </si>
+  <si>
+    <t>UA144508</t>
+  </si>
+  <si>
+    <t>VQ659950</t>
+  </si>
+  <si>
+    <t>VQ660670</t>
+  </si>
+  <si>
+    <t>UA143623</t>
+  </si>
+  <si>
+    <t>MA227456</t>
+  </si>
+  <si>
+    <t>WO857313</t>
+  </si>
+  <si>
+    <t>WO857515</t>
+  </si>
+  <si>
+    <t>WO857720</t>
+  </si>
+  <si>
+    <t>YC395016</t>
+  </si>
+  <si>
+    <t>VI627734</t>
+  </si>
+  <si>
+    <t>VI627807</t>
+  </si>
+  <si>
+    <t>XX109074</t>
+  </si>
+  <si>
+    <t>WZ416853</t>
+  </si>
+  <si>
+    <t>ZZ670829</t>
+  </si>
+  <si>
+    <t>LZ036484</t>
+  </si>
+  <si>
+    <t>UA140267</t>
+  </si>
+  <si>
+    <t>VH956103</t>
+  </si>
+  <si>
+    <t>WY972991</t>
+  </si>
+  <si>
+    <t>WY974259</t>
+  </si>
+  <si>
+    <t>VE999077</t>
+  </si>
+  <si>
+    <t>VJ369198</t>
+  </si>
+  <si>
+    <t>VQ264108</t>
+  </si>
+  <si>
+    <t>VN605752</t>
+  </si>
+  <si>
+    <t>MF230063</t>
+  </si>
+  <si>
+    <t>ME046709</t>
+  </si>
+  <si>
+    <t>VU181442</t>
+  </si>
+  <si>
+    <t>VU181617</t>
+  </si>
+  <si>
+    <t>VQ471528</t>
+  </si>
+  <si>
+    <t>MF491399</t>
+  </si>
+  <si>
+    <t>VM303396</t>
+  </si>
+  <si>
+    <t>VM038395</t>
+  </si>
+  <si>
+    <t>WJ322763</t>
+  </si>
+  <si>
+    <t>MA236167</t>
+  </si>
+  <si>
+    <t>MA248165</t>
+  </si>
+  <si>
+    <t>MA248298</t>
+  </si>
+  <si>
+    <t>WT667908</t>
+  </si>
+  <si>
+    <t>WT667981</t>
+  </si>
+  <si>
+    <t>WT668072</t>
+  </si>
+  <si>
+    <t>VE998084</t>
+  </si>
+  <si>
+    <t>MD071213</t>
+  </si>
+  <si>
+    <t>VG992039</t>
+  </si>
+  <si>
+    <t>VP326558</t>
+  </si>
+  <si>
+    <t>VM150372</t>
+  </si>
+  <si>
+    <t>VM151358</t>
+  </si>
+  <si>
+    <t>VM151536</t>
+  </si>
+  <si>
+    <t>UA142697</t>
+  </si>
+  <si>
+    <t>VH469980</t>
+  </si>
+  <si>
+    <t>VH470365</t>
+  </si>
+  <si>
+    <t>UA141523</t>
+  </si>
+  <si>
+    <t>VQ103060</t>
+  </si>
+  <si>
+    <t>VQ103790</t>
+  </si>
+  <si>
+    <t>XV408003</t>
+  </si>
+  <si>
+    <t>WD299401</t>
+  </si>
+  <si>
+    <t>VN714088</t>
+  </si>
+  <si>
+    <t>WQ090751</t>
+  </si>
+  <si>
+    <t>MD770156</t>
+  </si>
+  <si>
+    <t>VN764046</t>
+  </si>
+  <si>
+    <t>VN764293</t>
+  </si>
+  <si>
+    <t>MF834434</t>
+  </si>
+  <si>
+    <t>VT296425</t>
+  </si>
+  <si>
+    <t>VT296438</t>
+  </si>
+  <si>
+    <t>VT296560</t>
+  </si>
+  <si>
+    <t>MF492259</t>
+  </si>
+  <si>
+    <t>VA780828</t>
+  </si>
+  <si>
+    <t>VA780871</t>
+  </si>
+  <si>
+    <t>XX109120</t>
+  </si>
+  <si>
+    <t>UA160082</t>
+  </si>
+  <si>
+    <t>VO557420</t>
+  </si>
+  <si>
+    <t>VC396291</t>
+  </si>
+  <si>
+    <t>UA145228</t>
+  </si>
+  <si>
+    <t>VP271806</t>
   </si>
 </sst>
 </file>
@@ -499,7 +1222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -566,12 +1289,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,11 +1372,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,24 +1700,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,55 +1743,58 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1372,21 +2123,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1409,667 +2162,6949 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>702938</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="6"/>
+      <c r="H2" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>700388</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E3" s="32">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="6">
+        <v>44211</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>700388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E4" s="32">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>803121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E5" s="32">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44231</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>903494</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E6" s="32">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>903494</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E7" s="32">
+        <v>14</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>601534</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="31">
+        <v>44229</v>
+      </c>
+      <c r="E8" s="32">
+        <v>7</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>601534</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="31">
+        <v>44236</v>
+      </c>
+      <c r="E9" s="32">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>400938</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E10" s="32">
+        <v>7</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>701148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E11" s="32">
+        <v>28</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>903332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E12" s="32">
+        <v>5</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>904309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E13" s="32">
+        <v>5</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>700486</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E14" s="32">
+        <v>84</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>200339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E15" s="32">
+        <v>14</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>803822</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E16" s="32">
+        <v>3</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>803822</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E17" s="32">
+        <v>4</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>201768</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E18" s="32">
+        <v>7</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>120708</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E19" s="32">
+        <v>10</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="6">
+        <v>44195</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>11932</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E20" s="32">
+        <v>10</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>20260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>703434</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E22" s="32">
+        <v>11</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>201694</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E23" s="32">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>601209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E24" s="32">
+        <v>28</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>703773</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E25" s="32">
+        <v>7</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>200732</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E26" s="32">
+        <v>4</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>803139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E27" s="32">
+        <v>7</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>130891</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>70829</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E29" s="32">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>70829</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E30" s="32">
+        <v>7</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>120574</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E31" s="32">
+        <v>2</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>700349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E32" s="32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>903167</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E33" s="32">
+        <v>10</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>901831</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>902440</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>902440</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="31">
+        <v>44229</v>
+      </c>
+      <c r="E36" s="32">
+        <v>3</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>902440</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E37" s="32">
+        <v>7</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="6">
+        <v>44211</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>70868</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="31">
+        <v>44240</v>
+      </c>
+      <c r="E38" s="32">
+        <v>28</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="6">
+        <v>44226</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>903923</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E39" s="32">
+        <v>10</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>903224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E40" s="32">
+        <v>10</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>903070</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E41" s="32">
+        <v>5</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>901677</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="31">
+        <v>44244</v>
+      </c>
+      <c r="E42" s="32">
+        <v>10</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>903488</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E43" s="32">
+        <v>3</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>901690</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E44" s="32">
+        <v>2</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>80985</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E45" s="32">
+        <v>16</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>902589</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E46" s="32">
+        <v>7</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>200223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E47" s="32">
+        <v>3</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>904275</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E48" s="32">
+        <v>7</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>703793</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E49" s="32">
+        <v>7</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>703793</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E50" s="32">
+        <v>3</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>903492</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E51" s="32">
+        <v>14</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>80939</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E52" s="32">
+        <v>3</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>80939</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E53" s="32">
+        <v>5</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" s="6">
+        <v>44226</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>80939</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="31">
+        <v>44236</v>
+      </c>
+      <c r="E54" s="32">
+        <v>6</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" s="6">
+        <v>44231</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>200468</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E55" s="32">
+        <v>19</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="6">
+        <v>44219</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>20</v>
+      </c>
+      <c r="B56">
+        <v>902437</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E56" s="32">
+        <v>7</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="6">
+        <v>44211</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>902437</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E57" s="32">
+        <v>7</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="6">
+        <v>44227</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>901788</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E58" s="32">
+        <v>3</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>703818</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E59" s="32">
+        <v>7</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>70824</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E60" s="32">
+        <v>5</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>11730</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E61" s="32">
+        <v>3</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>201853</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E62" s="32">
+        <v>1</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>201853</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="31">
+        <v>44229</v>
+      </c>
+      <c r="E63" s="32">
+        <v>27</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>701208</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E64" s="32">
+        <v>2</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>701956</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E65" s="32">
+        <v>7</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H65" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>21</v>
+      </c>
+      <c r="B66">
+        <v>902710</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E66" s="32">
+        <v>7</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>902020</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E67" s="32">
+        <v>1</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="6">
+        <v>44203</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>29495</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E68" s="32">
+        <v>2</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H68" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>700437</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E69" s="32">
+        <v>11</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="6">
+        <v>44200</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>903276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E70" s="32">
+        <v>9</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>701569</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E71" s="32">
+        <v>3</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>20349</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E72" s="32">
+        <v>84</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>902084</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E73" s="32">
+        <v>1</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>202013</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E74" s="32">
+        <v>3</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>700233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="31">
+        <v>44229</v>
+      </c>
+      <c r="E75" s="32">
+        <v>21</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>200430</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E76" s="32">
+        <v>7</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H76" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>200430</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E77" s="32">
+        <v>7</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="H77" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>110663</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E78" s="32">
+        <v>4</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>903142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E79" s="32">
+        <v>14</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" s="6">
+        <v>44201</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="30">
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <v>902514</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E80" s="32">
+        <v>7</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="30">
+        <v>21</v>
+      </c>
+      <c r="B81">
+        <v>902362</v>
+      </c>
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E81" s="32">
+        <v>3</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H81" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
+        <v>21</v>
+      </c>
+      <c r="B82">
+        <v>902362</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E82" s="32">
+        <v>6</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="30">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>902062</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="31">
+        <v>44236</v>
+      </c>
+      <c r="E83" s="32">
+        <v>14</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>803348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E84" s="32">
+        <v>3</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>400098</v>
+      </c>
+      <c r="C85" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E85" s="32">
+        <v>5</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H85" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
+        <v>21</v>
+      </c>
+      <c r="B86">
+        <v>701564</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E86" s="32">
+        <v>2</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>202086</v>
+      </c>
+      <c r="C87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E87" s="32">
+        <v>7</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="6">
+        <v>44201</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
+        <v>17</v>
+      </c>
+      <c r="B88">
+        <v>202086</v>
+      </c>
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E88" s="32">
+        <v>7</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H88" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>10742</v>
+      </c>
+      <c r="C89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E89" s="32">
+        <v>7</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>10742</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E90" s="32">
+        <v>4</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H90" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>91174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E91" s="32">
+        <v>7</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>21</v>
+      </c>
+      <c r="B92">
+        <v>902389</v>
+      </c>
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E92" s="32">
+        <v>7</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H92" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="30">
+        <v>21</v>
+      </c>
+      <c r="B93">
+        <v>902389</v>
+      </c>
+      <c r="C93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E93" s="32">
+        <v>7</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="30">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>92856</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E94" s="32">
+        <v>11</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H94" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="30">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>41160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="31">
+        <v>44240</v>
+      </c>
+      <c r="E95" s="32">
+        <v>28</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="6">
+        <v>44231</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>902196</v>
+      </c>
+      <c r="C96" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E96" s="32">
+        <v>21</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>81054</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E97" s="32">
+        <v>28</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="H97" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="30">
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>801007</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E98" s="32">
+        <v>14</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="30">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>22792</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E99" s="32">
+        <v>10</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
+        <v>21</v>
+      </c>
+      <c r="B100">
+        <v>901616</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E100" s="32">
+        <v>5</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>302241</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E101" s="32">
+        <v>10</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" s="6">
+        <v>44227</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="30">
+        <v>21</v>
+      </c>
+      <c r="B102">
+        <v>704163</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E102" s="32">
+        <v>13</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>700588</v>
+      </c>
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E103" s="32">
+        <v>2</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
+        <v>21</v>
+      </c>
+      <c r="B104">
+        <v>902843</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E104" s="32">
+        <v>14</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="30">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>800508</v>
+      </c>
+      <c r="C105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E105" s="32">
+        <v>6</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H105" s="6">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>902536</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E106" s="32">
+        <v>6</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H106" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>902536</v>
+      </c>
+      <c r="C107" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="31">
+        <v>44244</v>
+      </c>
+      <c r="E107" s="32">
+        <v>8</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="6">
+        <v>44212</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="30">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>80688</v>
+      </c>
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E108" s="32">
+        <v>7</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="H108" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="30">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>80688</v>
+      </c>
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E109" s="32">
+        <v>2</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="H109" s="6">
+        <v>44228</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="30">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>201683</v>
+      </c>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E110" s="32">
+        <v>10</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H110" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="30">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>300839</v>
+      </c>
+      <c r="C111" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E111" s="32">
+        <v>14</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H111" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="30">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>120653</v>
+      </c>
+      <c r="C112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E112" s="32">
+        <v>10</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>201746</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E113" s="32">
+        <v>7</v>
+      </c>
+      <c r="F113" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H113" s="6">
+        <v>44199</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="30">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>201746</v>
+      </c>
+      <c r="C114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D114" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E114" s="32">
+        <v>11</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="30">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>11658</v>
+      </c>
+      <c r="C115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E115" s="32">
+        <v>14</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H115" s="6">
+        <v>44226</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="30">
+        <v>21</v>
+      </c>
+      <c r="B116">
+        <v>701047</v>
+      </c>
+      <c r="C116" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E116" s="32">
+        <v>7</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H116" s="6">
+        <v>44203</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="30">
+        <v>21</v>
+      </c>
+      <c r="B117">
+        <v>701047</v>
+      </c>
+      <c r="C117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E117" s="32">
+        <v>7</v>
+      </c>
+      <c r="F117" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H117" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="30">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>302384</v>
+      </c>
+      <c r="C118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E118" s="32">
+        <v>14</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H118" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="30">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>70764</v>
+      </c>
+      <c r="C119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E119" s="32">
+        <v>4</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H119" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="30">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>70764</v>
+      </c>
+      <c r="C120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E120" s="32">
+        <v>7</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H120" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="30">
+        <v>12</v>
+      </c>
+      <c r="B121">
+        <v>902979</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E121" s="32">
+        <v>4</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H121" s="6">
+        <v>44204</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="30">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>100326</v>
+      </c>
+      <c r="C122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E122" s="32">
+        <v>10</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H122" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="30">
+        <v>21</v>
+      </c>
+      <c r="B123">
+        <v>904121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E123" s="32">
+        <v>3</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H123" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="30">
+        <v>21</v>
+      </c>
+      <c r="B124">
+        <v>901101</v>
+      </c>
+      <c r="C124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E124" s="32">
+        <v>4</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H124" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="30">
+        <v>21</v>
+      </c>
+      <c r="B125">
+        <v>901101</v>
+      </c>
+      <c r="C125" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E125" s="32">
+        <v>14</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="H125" s="6">
+        <v>44211</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="30">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>100156</v>
+      </c>
+      <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E126" s="32">
+        <v>7</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H126" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="30">
+        <v>13</v>
+      </c>
+      <c r="B127">
+        <v>100156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E127" s="32">
+        <v>7</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="H127" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="30">
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>100156</v>
+      </c>
+      <c r="C128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="31">
+        <v>44242</v>
+      </c>
+      <c r="E128" s="32">
+        <v>7</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H128" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="30">
+        <v>21</v>
+      </c>
+      <c r="B129">
+        <v>703937</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E129" s="32">
+        <v>7</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H129" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="30">
+        <v>21</v>
+      </c>
+      <c r="B130">
+        <v>703937</v>
+      </c>
+      <c r="C130" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E130" s="32">
+        <v>7</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H130" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="30">
+        <v>12</v>
+      </c>
+      <c r="B131">
+        <v>93399</v>
+      </c>
+      <c r="C131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E131" s="32">
+        <v>21</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H131" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="30">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>400327</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E132" s="32">
+        <v>3</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H132" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="30">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>902625</v>
+      </c>
+      <c r="C133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E133" s="32">
+        <v>5</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H133" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="30">
+        <v>21</v>
+      </c>
+      <c r="B134">
+        <v>703400</v>
+      </c>
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E134" s="32">
+        <v>3</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H134" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="30">
+        <v>21</v>
+      </c>
+      <c r="B135">
+        <v>703400</v>
+      </c>
+      <c r="C135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E135" s="32">
+        <v>5</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H135" s="6">
+        <v>44227</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="30">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <v>92350</v>
+      </c>
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E136" s="32">
+        <v>14</v>
+      </c>
+      <c r="F136" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="H136" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="30">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>92350</v>
+      </c>
+      <c r="C137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" s="31">
+        <v>44242</v>
+      </c>
+      <c r="E137" s="32">
+        <v>13</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="H137" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="30">
+        <v>10</v>
+      </c>
+      <c r="B138">
+        <v>70972</v>
+      </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E138" s="32">
+        <v>10</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H138" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="30">
+        <v>8</v>
+      </c>
+      <c r="B139">
+        <v>50653</v>
+      </c>
+      <c r="C139" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E139" s="32">
+        <v>3</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H139" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="30">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>50653</v>
+      </c>
+      <c r="C140" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E140" s="32">
+        <v>7</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H140" s="6">
+        <v>44193</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="30">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>50653</v>
+      </c>
+      <c r="C141" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="31">
+        <v>44238</v>
+      </c>
+      <c r="E141" s="32">
+        <v>7</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H141" s="6">
+        <v>44200</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="30">
+        <v>21</v>
+      </c>
+      <c r="B142">
+        <v>701116</v>
+      </c>
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E142" s="32">
+        <v>14</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H142" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="30">
+        <v>18</v>
+      </c>
+      <c r="B143">
+        <v>902595</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E143" s="32">
+        <v>7</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H143" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="30">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>80055</v>
+      </c>
+      <c r="C144" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E144" s="32">
+        <v>3</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="H144" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="30">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>301659</v>
+      </c>
+      <c r="C145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E145" s="32">
+        <v>7</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H145" s="6">
+        <v>44209</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="30">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>92484</v>
+      </c>
+      <c r="C146" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E146" s="32">
+        <v>14</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="H146" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="30">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>401121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>46</v>
+      </c>
+      <c r="D147" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E147" s="32">
+        <v>7</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H147" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="30">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>903502</v>
+      </c>
+      <c r="C148" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E148" s="32">
+        <v>14</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H148" s="6">
+        <v>44204</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="30">
+        <v>21</v>
+      </c>
+      <c r="B149">
+        <v>700362</v>
+      </c>
+      <c r="C149" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E149" s="32">
+        <v>8</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="H149" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="30">
+        <v>21</v>
+      </c>
+      <c r="B150">
+        <v>700362</v>
+      </c>
+      <c r="C150" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" s="31">
+        <v>44236</v>
+      </c>
+      <c r="E150" s="32">
+        <v>2</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H150" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="30">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>202343</v>
+      </c>
+      <c r="C151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E151" s="32">
+        <v>7</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H151" s="6">
+        <v>44201</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="30">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>202343</v>
+      </c>
+      <c r="C152" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E152" s="32">
+        <v>7</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="H152" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="30">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>202343</v>
+      </c>
+      <c r="C153" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="31">
+        <v>44242</v>
+      </c>
+      <c r="E153" s="32">
+        <v>7</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="H153" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="30">
+        <v>21</v>
+      </c>
+      <c r="B154">
+        <v>700003</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E154" s="32">
+        <v>6</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="H154" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <v>21</v>
+      </c>
+      <c r="B155">
+        <v>700003</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" s="31">
+        <v>44238</v>
+      </c>
+      <c r="E155" s="32">
+        <v>6</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="H155" s="6">
+        <v>44201</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="30">
+        <v>21</v>
+      </c>
+      <c r="B156">
+        <v>703561</v>
+      </c>
+      <c r="C156" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E156" s="32">
+        <v>6</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H156" s="6">
+        <v>43850</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="30">
+        <v>21</v>
+      </c>
+      <c r="B157">
+        <v>703561</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" s="31">
+        <v>44244</v>
+      </c>
+      <c r="E157" s="32">
+        <v>3</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H157" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="30">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>201750</v>
+      </c>
+      <c r="C158" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E158" s="32">
+        <v>4</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="H158" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="30">
+        <v>11</v>
+      </c>
+      <c r="B159">
+        <v>904062</v>
+      </c>
+      <c r="C159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E159" s="32">
+        <v>3</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="H159" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="30">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>904062</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E160" s="32">
+        <v>7</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="H160" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="30">
+        <v>11</v>
+      </c>
+      <c r="B161">
+        <v>904062</v>
+      </c>
+      <c r="C161" t="s">
+        <v>46</v>
+      </c>
+      <c r="D161" s="31">
+        <v>44238</v>
+      </c>
+      <c r="E161" s="32">
+        <v>7</v>
+      </c>
+      <c r="F161" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H161" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="30">
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>40981</v>
+      </c>
+      <c r="C162" t="s">
+        <v>46</v>
+      </c>
+      <c r="D162" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E162" s="32">
+        <v>3</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="H162" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="30">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>401063</v>
+      </c>
+      <c r="C163" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E163" s="32">
+        <v>3</v>
+      </c>
+      <c r="F163" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="H163" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="30">
+        <v>22</v>
+      </c>
+      <c r="B164">
+        <v>803748</v>
+      </c>
+      <c r="C164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D164" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E164" s="32">
+        <v>1</v>
+      </c>
+      <c r="F164" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H164" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="30">
+        <v>20</v>
+      </c>
+      <c r="B165">
+        <v>903149</v>
+      </c>
+      <c r="C165" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E165" s="32">
+        <v>7</v>
+      </c>
+      <c r="F165" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="H165" s="6">
+        <v>44218</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="30">
+        <v>20</v>
+      </c>
+      <c r="B166">
+        <v>903149</v>
+      </c>
+      <c r="C166" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E166" s="32">
+        <v>7</v>
+      </c>
+      <c r="F166" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H166" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="30">
+        <v>21</v>
+      </c>
+      <c r="B167">
+        <v>700369</v>
+      </c>
+      <c r="C167" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="31">
+        <v>44238</v>
+      </c>
+      <c r="E167" s="32">
+        <v>28</v>
+      </c>
+      <c r="F167" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H167" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="30">
+        <v>18</v>
+      </c>
+      <c r="B168">
+        <v>300736</v>
+      </c>
+      <c r="C168" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E168" s="32">
+        <v>7</v>
+      </c>
+      <c r="F168" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H168" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="30">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>300736</v>
+      </c>
+      <c r="C169" t="s">
+        <v>46</v>
+      </c>
+      <c r="D169" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E169" s="32">
+        <v>4</v>
+      </c>
+      <c r="F169" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H169" s="6">
+        <v>44228</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="30">
+        <v>21</v>
+      </c>
+      <c r="B170">
+        <v>700083</v>
+      </c>
+      <c r="C170" t="s">
+        <v>46</v>
+      </c>
+      <c r="D170" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E170" s="32">
+        <v>9</v>
+      </c>
+      <c r="F170" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H170" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="30">
+        <v>18</v>
+      </c>
+      <c r="B171">
+        <v>302333</v>
+      </c>
+      <c r="C171" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E171" s="32">
+        <v>14</v>
+      </c>
+      <c r="F171" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="H171" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="30">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>302333</v>
+      </c>
+      <c r="C172" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" s="31">
+        <v>44242</v>
+      </c>
+      <c r="E172" s="32">
+        <v>7</v>
+      </c>
+      <c r="F172" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="H172" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="30">
+        <v>22</v>
+      </c>
+      <c r="B173">
+        <v>803705</v>
+      </c>
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E173" s="32">
+        <v>14</v>
+      </c>
+      <c r="F173" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="H173" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="30">
+        <v>21</v>
+      </c>
+      <c r="B174">
+        <v>702906</v>
+      </c>
+      <c r="C174" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E174" s="32">
+        <v>3</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H174" s="6">
+        <v>44226</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="30">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>902902</v>
+      </c>
+      <c r="C175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E175" s="32">
+        <v>6</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H175" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="30">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>902902</v>
+      </c>
+      <c r="C176" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="31">
+        <v>44244</v>
+      </c>
+      <c r="E176" s="32">
+        <v>6</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H176" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="30">
+        <v>20</v>
+      </c>
+      <c r="B177">
+        <v>902902</v>
+      </c>
+      <c r="C177" t="s">
+        <v>46</v>
+      </c>
+      <c r="D177" s="31">
+        <v>44240</v>
+      </c>
+      <c r="E177" s="32">
+        <v>2</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H177" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <v>22</v>
+      </c>
+      <c r="B178">
+        <v>803559</v>
+      </c>
+      <c r="C178" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E178" s="32">
+        <v>5</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H178" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="30">
+        <v>10</v>
+      </c>
+      <c r="B179">
+        <v>70708</v>
+      </c>
+      <c r="C179" t="s">
+        <v>46</v>
+      </c>
+      <c r="D179" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E179" s="32">
+        <v>7</v>
+      </c>
+      <c r="F179" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="H179" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="30">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>70708</v>
+      </c>
+      <c r="C180" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" s="31">
+        <v>44235</v>
+      </c>
+      <c r="E180" s="32">
+        <v>4</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="H180" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="30">
+        <v>21</v>
+      </c>
+      <c r="B181">
+        <v>703238</v>
+      </c>
+      <c r="C181" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E181" s="32">
+        <v>5</v>
+      </c>
+      <c r="F181" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H181" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="30">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>11858</v>
+      </c>
+      <c r="C182" t="s">
+        <v>46</v>
+      </c>
+      <c r="D182" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E182" s="32">
+        <v>7</v>
+      </c>
+      <c r="F182" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H182" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="30">
+        <v>22</v>
+      </c>
+      <c r="B183">
+        <v>901580</v>
+      </c>
+      <c r="C183" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E183" s="32">
+        <v>5</v>
+      </c>
+      <c r="F183" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H183" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="30">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>41192</v>
+      </c>
+      <c r="C184" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E184" s="32">
+        <v>10</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="H184" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="30">
+        <v>21</v>
+      </c>
+      <c r="B185">
+        <v>702149</v>
+      </c>
+      <c r="C185" t="s">
+        <v>46</v>
+      </c>
+      <c r="D185" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E185" s="32">
+        <v>12</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H185" s="6">
+        <v>44204</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="30">
+        <v>22</v>
+      </c>
+      <c r="B186">
+        <v>803411</v>
+      </c>
+      <c r="C186" t="s">
+        <v>47</v>
+      </c>
+      <c r="D186" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E186" s="32">
+        <v>5</v>
+      </c>
+      <c r="F186" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="H186" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="30">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>901824</v>
+      </c>
+      <c r="C187" t="s">
+        <v>46</v>
+      </c>
+      <c r="D187" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E187" s="32">
+        <v>14</v>
+      </c>
+      <c r="F187" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H187" s="6">
+        <v>44196</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="30">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>901824</v>
+      </c>
+      <c r="C188" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E188" s="32">
+        <v>3</v>
+      </c>
+      <c r="F188" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H188" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="30">
+        <v>17</v>
+      </c>
+      <c r="B189">
+        <v>201004</v>
+      </c>
+      <c r="C189" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E189" s="32">
+        <v>7</v>
+      </c>
+      <c r="F189" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H189" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="30">
+        <v>22</v>
+      </c>
+      <c r="B190">
+        <v>803404</v>
+      </c>
+      <c r="C190" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E190" s="32">
+        <v>7</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="H190" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="30">
+        <v>19</v>
+      </c>
+      <c r="B191">
+        <v>904510</v>
+      </c>
+      <c r="C191" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E191" s="32">
+        <v>10</v>
+      </c>
+      <c r="F191" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H191" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="30">
+        <v>20</v>
+      </c>
+      <c r="B192">
+        <v>902113</v>
+      </c>
+      <c r="C192" t="s">
+        <v>46</v>
+      </c>
+      <c r="D192" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E192" s="32">
+        <v>2</v>
+      </c>
+      <c r="F192" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H192" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="30">
+        <v>16</v>
+      </c>
+      <c r="B193">
+        <v>130290</v>
+      </c>
+      <c r="C193" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E193" s="32">
+        <v>5</v>
+      </c>
+      <c r="F193" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H193" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="30">
+        <v>19</v>
+      </c>
+      <c r="B194">
+        <v>400704</v>
+      </c>
+      <c r="C194" t="s">
+        <v>47</v>
+      </c>
+      <c r="D194" s="31">
+        <v>44240</v>
+      </c>
+      <c r="E194" s="32">
+        <v>14</v>
+      </c>
+      <c r="F194" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="H194" s="6">
+        <v>44228</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="30">
+        <v>17</v>
+      </c>
+      <c r="B195">
+        <v>902656</v>
+      </c>
+      <c r="C195" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" s="31">
+        <v>44230</v>
+      </c>
+      <c r="E195" s="32">
+        <v>7</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H195" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="30">
+        <v>17</v>
+      </c>
+      <c r="B196">
+        <v>902656</v>
+      </c>
+      <c r="C196" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="31">
+        <v>44237</v>
+      </c>
+      <c r="E196" s="32">
+        <v>7</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H196" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="30">
+        <v>11</v>
+      </c>
+      <c r="B197">
+        <v>80139</v>
+      </c>
+      <c r="C197" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E197" s="32">
+        <v>4</v>
+      </c>
+      <c r="F197" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="H197" s="6">
+        <v>44214</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="30">
+        <v>22</v>
+      </c>
+      <c r="B198">
+        <v>800017</v>
+      </c>
+      <c r="C198" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E198" s="32">
+        <v>28</v>
+      </c>
+      <c r="F198" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="H198" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="30">
+        <v>11</v>
+      </c>
+      <c r="B199">
+        <v>80990</v>
+      </c>
+      <c r="C199" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E199" s="32">
+        <v>7</v>
+      </c>
+      <c r="F199" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H199" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="30">
+        <v>21</v>
+      </c>
+      <c r="B200">
+        <v>901481</v>
+      </c>
+      <c r="C200" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E200" s="32">
+        <v>3</v>
+      </c>
+      <c r="F200" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H200" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="30">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>50614</v>
+      </c>
+      <c r="C201" t="s">
+        <v>46</v>
+      </c>
+      <c r="D201" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E201" s="32">
+        <v>3</v>
+      </c>
+      <c r="F201" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H201" s="6">
+        <v>44158</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="30">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>50614</v>
+      </c>
+      <c r="C202" t="s">
+        <v>46</v>
+      </c>
+      <c r="D202" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E202" s="32">
+        <v>5</v>
+      </c>
+      <c r="F202" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="H202" s="6">
+        <v>44161</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="30">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>50614</v>
+      </c>
+      <c r="C203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" s="31">
+        <v>44236</v>
+      </c>
+      <c r="E203" s="32">
+        <v>5</v>
+      </c>
+      <c r="F203" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="H203" s="6">
+        <v>44167</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="30">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>50614</v>
+      </c>
+      <c r="C204" t="s">
+        <v>46</v>
+      </c>
+      <c r="D204" s="31">
+        <v>44241</v>
+      </c>
+      <c r="E204" s="32">
+        <v>1</v>
+      </c>
+      <c r="F204" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H204" s="6">
+        <v>44174</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="30">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>903508</v>
+      </c>
+      <c r="C205" t="s">
+        <v>46</v>
+      </c>
+      <c r="D205" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E205" s="32">
+        <v>5</v>
+      </c>
+      <c r="F205" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H205" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="30">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>903508</v>
+      </c>
+      <c r="C206" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E206" s="32">
+        <v>5</v>
+      </c>
+      <c r="F206" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="H206" s="6">
+        <v>44212</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="30">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>903508</v>
+      </c>
+      <c r="C207" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="31">
+        <v>44238</v>
+      </c>
+      <c r="E207" s="32">
+        <v>2</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="H207" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="30">
+        <v>17</v>
+      </c>
+      <c r="B208">
+        <v>201504</v>
+      </c>
+      <c r="C208" t="s">
+        <v>46</v>
+      </c>
+      <c r="D208" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E208" s="32">
+        <v>5</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="H208" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="30">
+        <v>17</v>
+      </c>
+      <c r="B209">
+        <v>201504</v>
+      </c>
+      <c r="C209" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E209" s="32">
+        <v>9</v>
+      </c>
+      <c r="F209" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H209" s="6">
+        <v>44210</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="30">
+        <v>21</v>
+      </c>
+      <c r="B210">
+        <v>704125</v>
+      </c>
+      <c r="C210" t="s">
+        <v>46</v>
+      </c>
+      <c r="D210" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E210" s="32">
+        <v>2</v>
+      </c>
+      <c r="F210" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H210" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="30">
+        <v>22</v>
+      </c>
+      <c r="B211">
+        <v>801095</v>
+      </c>
+      <c r="C211" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E211" s="32">
+        <v>14</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H211" s="6">
+        <v>44202</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="30">
+        <v>17</v>
+      </c>
+      <c r="B212">
+        <v>901393</v>
+      </c>
+      <c r="C212" t="s">
+        <v>46</v>
+      </c>
+      <c r="D212" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E212" s="32">
+        <v>12</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H212" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="30">
+        <v>17</v>
+      </c>
+      <c r="B213">
+        <v>901393</v>
+      </c>
+      <c r="C213" t="s">
+        <v>47</v>
+      </c>
+      <c r="D213" s="31">
+        <v>44240</v>
+      </c>
+      <c r="E213" s="32">
+        <v>2</v>
+      </c>
+      <c r="F213" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="H213" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="30">
+        <v>17</v>
+      </c>
+      <c r="B214">
+        <v>901393</v>
+      </c>
+      <c r="C214" t="s">
+        <v>47</v>
+      </c>
+      <c r="D214" s="31">
+        <v>44242</v>
+      </c>
+      <c r="E214" s="32">
+        <v>7</v>
+      </c>
+      <c r="F214" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="H214" s="6">
+        <v>44219</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="30">
+        <v>22</v>
+      </c>
+      <c r="B215">
+        <v>800325</v>
+      </c>
+      <c r="C215" t="s">
+        <v>46</v>
+      </c>
+      <c r="D215" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E215" s="32">
+        <v>6</v>
+      </c>
+      <c r="F215" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H215" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="30">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>30261</v>
+      </c>
+      <c r="C216" t="s">
+        <v>46</v>
+      </c>
+      <c r="D216" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E216" s="32">
+        <v>6</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H216" s="6">
+        <v>44200</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="30">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>30261</v>
+      </c>
+      <c r="C217" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" s="31">
+        <v>44244</v>
+      </c>
+      <c r="E217" s="32">
+        <v>8</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H217" s="6">
+        <v>44206</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="30">
+        <v>21</v>
+      </c>
+      <c r="B218">
+        <v>700591</v>
+      </c>
+      <c r="C218" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E218" s="32">
+        <v>12</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H218" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="30">
+        <v>12</v>
+      </c>
+      <c r="B219">
+        <v>93396</v>
+      </c>
+      <c r="C219" t="s">
+        <v>46</v>
+      </c>
+      <c r="D219" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E219" s="32">
+        <v>5</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="H219" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="30">
+        <v>12</v>
+      </c>
+      <c r="B220">
+        <v>93396</v>
+      </c>
+      <c r="C220" t="s">
+        <v>47</v>
+      </c>
+      <c r="D220" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E220" s="32">
+        <v>7</v>
+      </c>
+      <c r="F220" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="H220" s="6">
+        <v>44229</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="30">
+        <v>18</v>
+      </c>
+      <c r="B221">
+        <v>301150</v>
+      </c>
+      <c r="C221" t="s">
+        <v>46</v>
+      </c>
+      <c r="D221" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E221" s="32">
+        <v>7</v>
+      </c>
+      <c r="F221" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="H221" s="6">
+        <v>44225</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="30">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <v>91466</v>
+      </c>
+      <c r="C222" t="s">
+        <v>46</v>
+      </c>
+      <c r="D222" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E222" s="32">
+        <v>7</v>
+      </c>
+      <c r="F222" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="H222" s="6">
+        <v>44227</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="30">
+        <v>21</v>
+      </c>
+      <c r="B223">
+        <v>702324</v>
+      </c>
+      <c r="C223" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E223" s="32">
+        <v>28</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H223" s="6">
+        <v>44223</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="30">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>60776</v>
+      </c>
+      <c r="C224" t="s">
+        <v>46</v>
+      </c>
+      <c r="D224" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E224" s="32">
+        <v>11</v>
+      </c>
+      <c r="F224" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="H224" s="6">
+        <v>44205</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="30">
+        <v>10</v>
+      </c>
+      <c r="B225">
+        <v>70084</v>
+      </c>
+      <c r="C225" t="s">
+        <v>46</v>
+      </c>
+      <c r="D225" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E225" s="32">
+        <v>3</v>
+      </c>
+      <c r="F225" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="H225" s="6">
+        <v>44230</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="30">
+        <v>17</v>
+      </c>
+      <c r="B226">
+        <v>901445</v>
+      </c>
+      <c r="C226" t="s">
+        <v>47</v>
+      </c>
+      <c r="D226" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E226" s="32">
+        <v>1</v>
+      </c>
+      <c r="F226" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="H226" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="30">
+        <v>17</v>
+      </c>
+      <c r="B227">
+        <v>901445</v>
+      </c>
+      <c r="C227" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" s="31">
+        <v>44233</v>
+      </c>
+      <c r="E227" s="32">
+        <v>7</v>
+      </c>
+      <c r="F227" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="H227" s="6">
+        <v>44222</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="30">
+        <v>12</v>
+      </c>
+      <c r="B228">
+        <v>92391</v>
+      </c>
+      <c r="C228" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E228" s="32">
+        <v>5</v>
+      </c>
+      <c r="F228" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H228" s="6">
+        <v>44196</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="30">
+        <v>17</v>
+      </c>
+      <c r="B229">
+        <v>202048</v>
+      </c>
+      <c r="C229" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E229" s="32">
+        <v>2</v>
+      </c>
+      <c r="F229" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="H229" s="6">
+        <v>44219</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="30">
+        <v>17</v>
+      </c>
+      <c r="B230">
+        <v>202048</v>
+      </c>
+      <c r="C230" t="s">
+        <v>46</v>
+      </c>
+      <c r="D230" s="31">
+        <v>44230</v>
+      </c>
+      <c r="E230" s="32">
+        <v>1</v>
+      </c>
+      <c r="F230" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="H230" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="30">
+        <v>17</v>
+      </c>
+      <c r="B231">
+        <v>202048</v>
+      </c>
+      <c r="C231" t="s">
+        <v>46</v>
+      </c>
+      <c r="D231" s="31">
+        <v>44231</v>
+      </c>
+      <c r="E231" s="32">
+        <v>1</v>
+      </c>
+      <c r="F231" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H231" s="6">
+        <v>44224</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="30">
+        <v>7</v>
+      </c>
+      <c r="B232">
+        <v>40913</v>
+      </c>
+      <c r="C232" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E232" s="32">
+        <v>28</v>
+      </c>
+      <c r="F232" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H232" s="6">
+        <v>44213</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="30">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>902344</v>
+      </c>
+      <c r="C233" t="s">
+        <v>47</v>
+      </c>
+      <c r="D233" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E233" s="32">
+        <v>4</v>
+      </c>
+      <c r="F233" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="H233" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="30">
+        <v>18</v>
+      </c>
+      <c r="B234">
+        <v>902344</v>
+      </c>
+      <c r="C234" t="s">
+        <v>47</v>
+      </c>
+      <c r="D234" s="31">
+        <v>44232</v>
+      </c>
+      <c r="E234" s="32">
+        <v>2</v>
+      </c>
+      <c r="F234" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="H234" s="6">
+        <v>44221</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="30">
+        <v>21</v>
+      </c>
+      <c r="B235">
+        <v>702195</v>
+      </c>
+      <c r="C235" t="s">
+        <v>46</v>
+      </c>
+      <c r="D235" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E235" s="32">
+        <v>2</v>
+      </c>
+      <c r="F235" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="H235" s="6">
+        <v>44215</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="30">
+        <v>21</v>
+      </c>
+      <c r="B236">
+        <v>702268</v>
+      </c>
+      <c r="C236" t="s">
+        <v>46</v>
+      </c>
+      <c r="D236" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E236" s="32">
+        <v>3</v>
+      </c>
+      <c r="F236" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="H236" s="6">
+        <v>44226</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="30">
+        <v>17</v>
+      </c>
+      <c r="B237">
+        <v>202352</v>
+      </c>
+      <c r="C237" t="s">
+        <v>46</v>
+      </c>
+      <c r="D237" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E237" s="32">
+        <v>12</v>
+      </c>
+      <c r="F237" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="H237" s="6">
+        <v>44207</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="30">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>130913</v>
+      </c>
+      <c r="C238" t="s">
+        <v>46</v>
+      </c>
+      <c r="D238" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E238" s="32">
+        <v>5</v>
+      </c>
+      <c r="F238" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="H238" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="30">
+        <v>21</v>
+      </c>
+      <c r="B239">
+        <v>901094</v>
+      </c>
+      <c r="C239" t="s">
+        <v>46</v>
+      </c>
+      <c r="D239" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E239" s="32">
+        <v>12</v>
+      </c>
+      <c r="F239" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H239" s="6">
+        <v>44208</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="30">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>600248</v>
+      </c>
+      <c r="C240" t="s">
+        <v>47</v>
+      </c>
+      <c r="D240" s="31">
+        <v>44228</v>
+      </c>
+      <c r="E240" s="32">
+        <v>5</v>
+      </c>
+      <c r="F240" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="H240" s="6">
+        <v>44216</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -2084,7 +9119,7 @@
   <dimension ref="A1:J1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,25 +9144,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>7</v>
@@ -8992,37 +16027,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>7</v>
@@ -9413,10 +16448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,16 +16478,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -9460,6 +16495,9 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9484,153 +16522,153 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -9643,8 +16681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9665,34 +16703,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -9717,10 +16755,13 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -9743,57 +16784,63 @@
         <v>607</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="15">
         <v>0</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="17">
+        <v>44180</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -9815,13 +16862,13 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>7</v>
@@ -9835,7 +16882,7 @@
         <v>10000</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="17">
         <v>44180</v>
@@ -9846,60 +16893,60 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="A12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -9909,25 +16956,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>7</v>
@@ -9941,16 +16988,16 @@
         <v>10000</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="15">
         <v>5000</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="20">
         <v>44180</v>
@@ -9959,58 +17006,58 @@
         <v>0</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="F15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="A17" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -10020,37 +17067,37 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="M18" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>7</v>
@@ -10064,55 +17111,55 @@
         <v>10000</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="K19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="M19" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -10122,16 +17169,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>7</v>
@@ -10151,13 +17198,13 @@
         <v>44235</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="24">
         <v>3</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -383,721 +383,10 @@
     <t>Cometarios del certificado emitido por IMSS (Contenido opcional)</t>
   </si>
   <si>
-    <t>WX255248</t>
+    <t>Dias_hrs</t>
   </si>
   <si>
-    <t>WL345719</t>
-  </si>
-  <si>
-    <t>MA244018</t>
-  </si>
-  <si>
-    <t>XT468537</t>
-  </si>
-  <si>
-    <t>WX902663</t>
-  </si>
-  <si>
-    <t>WX902847</t>
-  </si>
-  <si>
-    <t>VQ416108</t>
-  </si>
-  <si>
-    <t>VQ416711</t>
-  </si>
-  <si>
-    <t>WX902820</t>
-  </si>
-  <si>
-    <t>ME678100</t>
-  </si>
-  <si>
-    <t>MC647485</t>
-  </si>
-  <si>
-    <t>VO179517</t>
-  </si>
-  <si>
-    <t>MA270076</t>
-  </si>
-  <si>
-    <t>VT014201</t>
-  </si>
-  <si>
-    <t>WS967360</t>
-  </si>
-  <si>
-    <t>UA155013</t>
-  </si>
-  <si>
-    <t>VN983595</t>
-  </si>
-  <si>
-    <t>VA196880</t>
-  </si>
-  <si>
-    <t>VJ209778</t>
-  </si>
-  <si>
-    <t>WT207871</t>
-  </si>
-  <si>
-    <t>UA143367</t>
-  </si>
-  <si>
-    <t>VT296637</t>
-  </si>
-  <si>
-    <t>VK107336</t>
-  </si>
-  <si>
-    <t>VG992263</t>
-  </si>
-  <si>
-    <t>VQ346871</t>
-  </si>
-  <si>
-    <t>WM349309</t>
-  </si>
-  <si>
-    <t>VS830938</t>
-  </si>
-  <si>
-    <t>MD766717</t>
-  </si>
-  <si>
-    <t>MD781927</t>
-  </si>
-  <si>
-    <t>VQ828193</t>
-  </si>
-  <si>
-    <t>WL346873</t>
-  </si>
-  <si>
-    <t>UA150165</t>
-  </si>
-  <si>
-    <t>VB690197</t>
-  </si>
-  <si>
-    <t>VK485917</t>
-  </si>
-  <si>
-    <t>VK486041</t>
-  </si>
-  <si>
-    <t>VK486807</t>
-  </si>
-  <si>
-    <t>MD781789</t>
-  </si>
-  <si>
-    <t>UA153955</t>
-  </si>
-  <si>
-    <t>VS372246</t>
-  </si>
-  <si>
-    <t>WY207686</t>
-  </si>
-  <si>
-    <t>ZZ522182</t>
-  </si>
-  <si>
-    <t>WI804854</t>
-  </si>
-  <si>
-    <t>VU812781</t>
-  </si>
-  <si>
-    <t>MC499711</t>
-  </si>
-  <si>
-    <t>MC499216</t>
-  </si>
-  <si>
-    <t>WN657381</t>
-  </si>
-  <si>
-    <t>VV291577</t>
-  </si>
-  <si>
-    <t>WV479688</t>
-  </si>
-  <si>
-    <t>WV479913</t>
-  </si>
-  <si>
-    <t>WZ416565</t>
-  </si>
-  <si>
-    <t>XY269468</t>
-  </si>
-  <si>
-    <t>XY269497</t>
-  </si>
-  <si>
-    <t>XY269514</t>
-  </si>
-  <si>
-    <t>ME892790</t>
-  </si>
-  <si>
-    <t>MF951344</t>
-  </si>
-  <si>
-    <t>VP543268</t>
-  </si>
-  <si>
-    <t>MD808681</t>
-  </si>
-  <si>
-    <t>MA260828</t>
-  </si>
-  <si>
-    <t>MC499273</t>
-  </si>
-  <si>
-    <t>VN764374</t>
-  </si>
-  <si>
-    <t>WO492577</t>
-  </si>
-  <si>
-    <t>MG498266</t>
-  </si>
-  <si>
-    <t>VG352764</t>
-  </si>
-  <si>
-    <t>XY206717</t>
-  </si>
-  <si>
-    <t>WJ804088</t>
-  </si>
-  <si>
-    <t>VH034563</t>
-  </si>
-  <si>
-    <t>WJ803730</t>
-  </si>
-  <si>
-    <t>XT205475</t>
-  </si>
-  <si>
-    <t>VJ208977</t>
-  </si>
-  <si>
-    <t>VO619524</t>
-  </si>
-  <si>
-    <t>MA264893</t>
-  </si>
-  <si>
-    <t>WW124810</t>
-  </si>
-  <si>
-    <t>UA159612</t>
-  </si>
-  <si>
-    <t>WX753736</t>
-  </si>
-  <si>
-    <t>WP579937</t>
-  </si>
-  <si>
-    <t>WP580145</t>
-  </si>
-  <si>
-    <t>WW483128</t>
-  </si>
-  <si>
-    <t>VP628692</t>
-  </si>
-  <si>
-    <t>VQ471739</t>
-  </si>
-  <si>
-    <t>VJ513754</t>
-  </si>
-  <si>
-    <t>VJ514031</t>
-  </si>
-  <si>
-    <t>WG617258</t>
-  </si>
-  <si>
-    <t>MF044982</t>
-  </si>
-  <si>
-    <t>VR045278</t>
-  </si>
-  <si>
-    <t>XX109259</t>
-  </si>
-  <si>
-    <t>VM150032</t>
-  </si>
-  <si>
-    <t>VM150500</t>
-  </si>
-  <si>
-    <t>WI588025</t>
-  </si>
-  <si>
-    <t>WI588512</t>
-  </si>
-  <si>
-    <t>VK203400</t>
-  </si>
-  <si>
-    <t>VQ211015</t>
-  </si>
-  <si>
-    <t>VQ211499</t>
-  </si>
-  <si>
-    <t>UA146089</t>
-  </si>
-  <si>
-    <t>VP909660</t>
-  </si>
-  <si>
-    <t>MG298404</t>
-  </si>
-  <si>
-    <t>MF491521</t>
-  </si>
-  <si>
-    <t>VR044557</t>
-  </si>
-  <si>
-    <t>VU471548</t>
-  </si>
-  <si>
-    <t>MA274852</t>
-  </si>
-  <si>
-    <t>VT397888</t>
-  </si>
-  <si>
-    <t>MA247057</t>
-  </si>
-  <si>
-    <t>XX109522</t>
-  </si>
-  <si>
-    <t>WM545467</t>
-  </si>
-  <si>
-    <t>WW483113</t>
-  </si>
-  <si>
-    <t>MG530939</t>
-  </si>
-  <si>
-    <t>VA352644</t>
-  </si>
-  <si>
-    <t>MD793216</t>
-  </si>
-  <si>
-    <t>MD793207</t>
-  </si>
-  <si>
-    <t>XR678336</t>
-  </si>
-  <si>
-    <t>WT525062</t>
-  </si>
-  <si>
-    <t>VM801605</t>
-  </si>
-  <si>
-    <t>VM149841</t>
-  </si>
-  <si>
-    <t>UA144252</t>
-  </si>
-  <si>
-    <t>MC706729</t>
-  </si>
-  <si>
-    <t>XY206537</t>
-  </si>
-  <si>
-    <t>ME652316</t>
-  </si>
-  <si>
-    <t>WT525898</t>
-  </si>
-  <si>
-    <t>XM372653</t>
-  </si>
-  <si>
-    <t>XM372678</t>
-  </si>
-  <si>
-    <t>WH324015</t>
-  </si>
-  <si>
-    <t>VP372521</t>
-  </si>
-  <si>
-    <t>WG993698</t>
-  </si>
-  <si>
-    <t>UA143143</t>
-  </si>
-  <si>
-    <t>MA253652</t>
-  </si>
-  <si>
-    <t>WQ976392</t>
-  </si>
-  <si>
-    <t>WQ976644</t>
-  </si>
-  <si>
-    <t>WQ976923</t>
-  </si>
-  <si>
-    <t>VT843274</t>
-  </si>
-  <si>
-    <t>VT843520</t>
-  </si>
-  <si>
-    <t>WX754006</t>
-  </si>
-  <si>
-    <t>ZL067554</t>
-  </si>
-  <si>
-    <t>VC775342</t>
-  </si>
-  <si>
-    <t>VN085597</t>
-  </si>
-  <si>
-    <t>VN085765</t>
-  </si>
-  <si>
-    <t>XX866317</t>
-  </si>
-  <si>
-    <t>XX866679</t>
-  </si>
-  <si>
-    <t>VI627720</t>
-  </si>
-  <si>
-    <t>WC791067</t>
-  </si>
-  <si>
-    <t>MA240957</t>
-  </si>
-  <si>
-    <t>WC790780</t>
-  </si>
-  <si>
-    <t>VP580510</t>
-  </si>
-  <si>
-    <t>XR989079</t>
-  </si>
-  <si>
-    <t>VM303921</t>
-  </si>
-  <si>
-    <t>VG084353</t>
-  </si>
-  <si>
-    <t>MC212211</t>
-  </si>
-  <si>
-    <t>MF738376</t>
-  </si>
-  <si>
-    <t>YC394999</t>
-  </si>
-  <si>
-    <t>XX109467</t>
-  </si>
-  <si>
-    <t>XX109837</t>
-  </si>
-  <si>
-    <t>VV290533</t>
-  </si>
-  <si>
-    <t>VV290800</t>
-  </si>
-  <si>
-    <t>VV291105</t>
-  </si>
-  <si>
-    <t>VE480700</t>
-  </si>
-  <si>
-    <t>VE480326</t>
-  </si>
-  <si>
-    <t>MA276430</t>
-  </si>
-  <si>
-    <t>XY574245</t>
-  </si>
-  <si>
-    <t>VT296678</t>
-  </si>
-  <si>
-    <t>MD792411</t>
-  </si>
-  <si>
-    <t>MD792414</t>
-  </si>
-  <si>
-    <t>MD792419</t>
-  </si>
-  <si>
-    <t>VW440068</t>
-  </si>
-  <si>
-    <t>ME046883</t>
-  </si>
-  <si>
-    <t>VW291200</t>
-  </si>
-  <si>
-    <t>WL160310</t>
-  </si>
-  <si>
-    <t>WL160527</t>
-  </si>
-  <si>
-    <t>WX754015</t>
-  </si>
-  <si>
-    <t>VA715166</t>
-  </si>
-  <si>
-    <t>VA715381</t>
-  </si>
-  <si>
-    <t>UA144508</t>
-  </si>
-  <si>
-    <t>VQ659950</t>
-  </si>
-  <si>
-    <t>VQ660670</t>
-  </si>
-  <si>
-    <t>UA143623</t>
-  </si>
-  <si>
-    <t>MA227456</t>
-  </si>
-  <si>
-    <t>WO857313</t>
-  </si>
-  <si>
-    <t>WO857515</t>
-  </si>
-  <si>
-    <t>WO857720</t>
-  </si>
-  <si>
-    <t>YC395016</t>
-  </si>
-  <si>
-    <t>VI627734</t>
-  </si>
-  <si>
-    <t>VI627807</t>
-  </si>
-  <si>
-    <t>XX109074</t>
-  </si>
-  <si>
-    <t>WZ416853</t>
-  </si>
-  <si>
-    <t>ZZ670829</t>
-  </si>
-  <si>
-    <t>LZ036484</t>
-  </si>
-  <si>
-    <t>UA140267</t>
-  </si>
-  <si>
-    <t>VH956103</t>
-  </si>
-  <si>
-    <t>WY972991</t>
-  </si>
-  <si>
-    <t>WY974259</t>
-  </si>
-  <si>
-    <t>VE999077</t>
-  </si>
-  <si>
-    <t>VJ369198</t>
-  </si>
-  <si>
-    <t>VQ264108</t>
-  </si>
-  <si>
-    <t>VN605752</t>
-  </si>
-  <si>
-    <t>MF230063</t>
-  </si>
-  <si>
-    <t>ME046709</t>
-  </si>
-  <si>
-    <t>VU181442</t>
-  </si>
-  <si>
-    <t>VU181617</t>
-  </si>
-  <si>
-    <t>VQ471528</t>
-  </si>
-  <si>
-    <t>MF491399</t>
-  </si>
-  <si>
-    <t>VM303396</t>
-  </si>
-  <si>
-    <t>VM038395</t>
-  </si>
-  <si>
-    <t>WJ322763</t>
-  </si>
-  <si>
-    <t>MA236167</t>
-  </si>
-  <si>
-    <t>MA248165</t>
-  </si>
-  <si>
-    <t>MA248298</t>
-  </si>
-  <si>
-    <t>WT667908</t>
-  </si>
-  <si>
-    <t>WT667981</t>
-  </si>
-  <si>
-    <t>WT668072</t>
-  </si>
-  <si>
-    <t>VE998084</t>
-  </si>
-  <si>
-    <t>MD071213</t>
-  </si>
-  <si>
-    <t>VG992039</t>
-  </si>
-  <si>
-    <t>VP326558</t>
-  </si>
-  <si>
-    <t>VM150372</t>
-  </si>
-  <si>
-    <t>VM151358</t>
-  </si>
-  <si>
-    <t>VM151536</t>
-  </si>
-  <si>
-    <t>UA142697</t>
-  </si>
-  <si>
-    <t>VH469980</t>
-  </si>
-  <si>
-    <t>VH470365</t>
-  </si>
-  <si>
-    <t>UA141523</t>
-  </si>
-  <si>
-    <t>VQ103060</t>
-  </si>
-  <si>
-    <t>VQ103790</t>
-  </si>
-  <si>
-    <t>XV408003</t>
-  </si>
-  <si>
-    <t>WD299401</t>
-  </si>
-  <si>
-    <t>VN714088</t>
-  </si>
-  <si>
-    <t>WQ090751</t>
-  </si>
-  <si>
-    <t>MD770156</t>
-  </si>
-  <si>
-    <t>VN764046</t>
-  </si>
-  <si>
-    <t>VN764293</t>
-  </si>
-  <si>
-    <t>MF834434</t>
-  </si>
-  <si>
-    <t>VT296425</t>
-  </si>
-  <si>
-    <t>VT296438</t>
-  </si>
-  <si>
-    <t>VT296560</t>
-  </si>
-  <si>
-    <t>MF492259</t>
-  </si>
-  <si>
-    <t>VA780828</t>
-  </si>
-  <si>
-    <t>VA780871</t>
-  </si>
-  <si>
-    <t>XX109120</t>
-  </si>
-  <si>
-    <t>UA160082</t>
-  </si>
-  <si>
-    <t>VO557420</t>
-  </si>
-  <si>
-    <t>VC396291</t>
-  </si>
-  <si>
-    <t>UA145228</t>
-  </si>
-  <si>
-    <t>VP271806</t>
+    <t xml:space="preserve">Por default ira en cero y solo se modificara para los renglones que aplique. </t>
   </si>
 </sst>
 </file>
@@ -1222,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1304,12 +593,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,18 +670,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1700,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1021,7 @@
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,50 +1052,53 @@
       <c r="J1" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -2126,7 +1430,7 @@
   <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6936 +1479,1917 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>702938</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E2" s="32">
-        <v>3</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>109</v>
-      </c>
+      <c r="A2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>700388</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E3" s="32">
-        <v>3</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="6">
-        <v>44211</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="26"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>700388</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E4" s="32">
-        <v>2</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>803121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E5" s="32">
-        <v>3</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="6">
-        <v>44231</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>903494</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E6" s="32">
-        <v>3</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>903494</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E7" s="32">
-        <v>14</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>601534</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="31">
-        <v>44229</v>
-      </c>
-      <c r="E8" s="32">
-        <v>7</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>601534</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="31">
-        <v>44236</v>
-      </c>
-      <c r="E9" s="32">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="6"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>400938</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E10" s="32">
-        <v>7</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>701148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E11" s="32">
-        <v>28</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="26"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>903332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E12" s="32">
-        <v>5</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="26"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>904309</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E13" s="32">
-        <v>5</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="26"/>
+      <c r="H13" s="6"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>700486</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E14" s="32">
-        <v>84</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26"/>
+      <c r="H14" s="6"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>200339</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E15" s="32">
-        <v>14</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+      <c r="H15" s="6"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>803822</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E16" s="32">
-        <v>3</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>803822</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E17" s="32">
-        <v>4</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="26"/>
+      <c r="H17" s="6"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>201768</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E18" s="32">
-        <v>7</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="26"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>120708</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E19" s="32">
-        <v>10</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="6">
-        <v>44195</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="26"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>11932</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E20" s="32">
-        <v>10</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="26"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>20260</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>703434</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E22" s="32">
-        <v>11</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="26"/>
+      <c r="H22" s="6"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>201694</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E23" s="32">
-        <v>2</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="26"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>601209</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E24" s="32">
-        <v>28</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="26"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>703773</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E25" s="32">
-        <v>7</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="26"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>200732</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E26" s="32">
-        <v>4</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="26"/>
+      <c r="H26" s="6"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>803139</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E27" s="32">
-        <v>7</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="26"/>
+      <c r="H27" s="6"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>130891</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="26"/>
+      <c r="H28" s="6"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>70829</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E29" s="32">
-        <v>3</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="26"/>
+      <c r="H29" s="6"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>70829</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E30" s="32">
-        <v>7</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="26"/>
+      <c r="H30" s="6"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>120574</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E31" s="32">
-        <v>2</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="26"/>
+      <c r="H31" s="6"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>700349</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E32" s="32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="26"/>
+      <c r="H32" s="6"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
-        <v>21</v>
-      </c>
-      <c r="B33">
-        <v>903167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E33" s="32">
-        <v>10</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="26"/>
+      <c r="H33" s="6"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>901831</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E34" s="32">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="26"/>
+      <c r="H34" s="6"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>902440</v>
-      </c>
-      <c r="C35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E35" s="32">
-        <v>1</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="26"/>
+      <c r="H35" s="6"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>902440</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="31">
-        <v>44229</v>
-      </c>
-      <c r="E36" s="32">
-        <v>3</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="26"/>
+      <c r="H36" s="6"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>902440</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E37" s="32">
-        <v>7</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="6">
-        <v>44211</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="26"/>
+      <c r="H37" s="6"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>70868</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="31">
-        <v>44240</v>
-      </c>
-      <c r="E38" s="32">
-        <v>28</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="6">
-        <v>44226</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="26"/>
+      <c r="H38" s="6"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>903923</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E39" s="32">
-        <v>10</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="26"/>
+      <c r="H39" s="6"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <v>903224</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E40" s="32">
-        <v>10</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="26"/>
+      <c r="H40" s="6"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>903070</v>
-      </c>
-      <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E41" s="32">
-        <v>5</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="26"/>
+      <c r="H41" s="6"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>901677</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="31">
-        <v>44244</v>
-      </c>
-      <c r="E42" s="32">
-        <v>10</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="26"/>
+      <c r="H42" s="6"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>903488</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E43" s="32">
-        <v>3</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="26"/>
+      <c r="H43" s="6"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>901690</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E44" s="32">
-        <v>2</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="26"/>
+      <c r="H44" s="6"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
-        <v>11</v>
-      </c>
-      <c r="B45">
-        <v>80985</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E45" s="32">
-        <v>16</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="26"/>
+      <c r="H45" s="6"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>902589</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E46" s="32">
-        <v>7</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="26"/>
+      <c r="H46" s="6"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>200223</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E47" s="32">
-        <v>3</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="26"/>
+      <c r="H47" s="6"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>904275</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E48" s="32">
-        <v>7</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H48" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="26"/>
+      <c r="H48" s="6"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
-        <v>21</v>
-      </c>
-      <c r="B49">
-        <v>703793</v>
-      </c>
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E49" s="32">
-        <v>7</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="H49" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="26"/>
+      <c r="H49" s="6"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
-        <v>21</v>
-      </c>
-      <c r="B50">
-        <v>703793</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E50" s="32">
-        <v>3</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="26"/>
+      <c r="H50" s="6"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>903492</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E51" s="32">
-        <v>14</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="26"/>
+      <c r="H51" s="6"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <v>80939</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E52" s="32">
-        <v>3</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="26"/>
+      <c r="H52" s="6"/>
+      <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
-        <v>11</v>
-      </c>
-      <c r="B53">
-        <v>80939</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E53" s="32">
-        <v>5</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" s="6">
-        <v>44226</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="26"/>
+      <c r="H53" s="6"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
-        <v>11</v>
-      </c>
-      <c r="B54">
-        <v>80939</v>
-      </c>
-      <c r="C54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="31">
-        <v>44236</v>
-      </c>
-      <c r="E54" s="32">
-        <v>6</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H54" s="6">
-        <v>44231</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="26"/>
+      <c r="H54" s="6"/>
+      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
-        <v>17</v>
-      </c>
-      <c r="B55">
-        <v>200468</v>
-      </c>
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E55" s="32">
-        <v>19</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H55" s="6">
-        <v>44219</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="26"/>
+      <c r="H55" s="6"/>
+      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <v>902437</v>
-      </c>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E56" s="32">
-        <v>7</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H56" s="6">
-        <v>44211</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="26"/>
+      <c r="H56" s="6"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="30">
-        <v>20</v>
-      </c>
-      <c r="B57">
-        <v>902437</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E57" s="32">
-        <v>7</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57" s="6">
-        <v>44227</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="26"/>
+      <c r="H57" s="6"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
-        <v>10</v>
-      </c>
-      <c r="B58">
-        <v>901788</v>
-      </c>
-      <c r="C58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E58" s="32">
-        <v>3</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="26"/>
+      <c r="H58" s="6"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
-        <v>21</v>
-      </c>
-      <c r="B59">
-        <v>703818</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E59" s="32">
-        <v>7</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="26"/>
+      <c r="H59" s="6"/>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
-        <v>10</v>
-      </c>
-      <c r="B60">
-        <v>70824</v>
-      </c>
-      <c r="C60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E60" s="32">
-        <v>5</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="H60" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="26"/>
+      <c r="H60" s="6"/>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>11730</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E61" s="32">
-        <v>3</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="26"/>
+      <c r="H61" s="6"/>
+      <c r="J61" s="15"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>201853</v>
-      </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E62" s="32">
-        <v>1</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="26"/>
+      <c r="H62" s="6"/>
+      <c r="J62" s="15"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
-        <v>17</v>
-      </c>
-      <c r="B63">
-        <v>201853</v>
-      </c>
-      <c r="C63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="31">
-        <v>44229</v>
-      </c>
-      <c r="E63" s="32">
-        <v>27</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="26"/>
+      <c r="H63" s="6"/>
+      <c r="J63" s="15"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
-        <v>21</v>
-      </c>
-      <c r="B64">
-        <v>701208</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E64" s="32">
-        <v>2</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A64" s="28"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="26"/>
+      <c r="H64" s="6"/>
+      <c r="J64" s="15"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
-        <v>21</v>
-      </c>
-      <c r="B65">
-        <v>701956</v>
-      </c>
-      <c r="C65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E65" s="32">
-        <v>7</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H65" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="26"/>
+      <c r="H65" s="6"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
-        <v>21</v>
-      </c>
-      <c r="B66">
-        <v>902710</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E66" s="32">
-        <v>7</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H66" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="26"/>
+      <c r="H66" s="6"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="30">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>902020</v>
-      </c>
-      <c r="C67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E67" s="32">
-        <v>1</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H67" s="6">
-        <v>44203</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="26"/>
+      <c r="H67" s="6"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>29495</v>
-      </c>
-      <c r="C68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E68" s="32">
-        <v>2</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H68" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="26"/>
+      <c r="H68" s="6"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="30">
-        <v>21</v>
-      </c>
-      <c r="B69">
-        <v>700437</v>
-      </c>
-      <c r="C69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E69" s="32">
-        <v>11</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="6">
-        <v>44200</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="26"/>
+      <c r="H69" s="6"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
-        <v>17</v>
-      </c>
-      <c r="B70">
-        <v>903276</v>
-      </c>
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E70" s="32">
-        <v>9</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H70" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="26"/>
+      <c r="H70" s="6"/>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="30">
-        <v>21</v>
-      </c>
-      <c r="B71">
-        <v>701569</v>
-      </c>
-      <c r="C71" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E71" s="32">
-        <v>3</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="26"/>
+      <c r="H71" s="6"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>20349</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E72" s="32">
-        <v>84</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="26"/>
+      <c r="H72" s="6"/>
+      <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="30">
-        <v>7</v>
-      </c>
-      <c r="B73">
-        <v>902084</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E73" s="32">
-        <v>1</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="26"/>
+      <c r="H73" s="6"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
-        <v>17</v>
-      </c>
-      <c r="B74">
-        <v>202013</v>
-      </c>
-      <c r="C74" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E74" s="32">
-        <v>3</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H74" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="26"/>
+      <c r="H74" s="6"/>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
-        <v>21</v>
-      </c>
-      <c r="B75">
-        <v>700233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="31">
-        <v>44229</v>
-      </c>
-      <c r="E75" s="32">
-        <v>21</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H75" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="26"/>
+      <c r="H75" s="6"/>
+      <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
-        <v>17</v>
-      </c>
-      <c r="B76">
-        <v>200430</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E76" s="32">
-        <v>7</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="H76" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="26"/>
+      <c r="H76" s="6"/>
+      <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
-        <v>17</v>
-      </c>
-      <c r="B77">
-        <v>200430</v>
-      </c>
-      <c r="C77" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E77" s="32">
-        <v>7</v>
-      </c>
-      <c r="F77" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="H77" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="26"/>
+      <c r="H77" s="6"/>
+      <c r="J77" s="15"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
-        <v>14</v>
-      </c>
-      <c r="B78">
-        <v>110663</v>
-      </c>
-      <c r="C78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E78" s="32">
-        <v>4</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H78" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="26"/>
+      <c r="H78" s="6"/>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
-        <v>20</v>
-      </c>
-      <c r="B79">
-        <v>903142</v>
-      </c>
-      <c r="C79" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E79" s="32">
-        <v>14</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" s="6">
-        <v>44201</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="26"/>
+      <c r="H79" s="6"/>
+      <c r="J79" s="15"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
-        <v>11</v>
-      </c>
-      <c r="B80">
-        <v>902514</v>
-      </c>
-      <c r="C80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E80" s="32">
-        <v>7</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="26"/>
+      <c r="H80" s="6"/>
+      <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
-        <v>21</v>
-      </c>
-      <c r="B81">
-        <v>902362</v>
-      </c>
-      <c r="C81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E81" s="32">
-        <v>3</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H81" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="26"/>
+      <c r="H81" s="6"/>
+      <c r="J81" s="15"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
-        <v>21</v>
-      </c>
-      <c r="B82">
-        <v>902362</v>
-      </c>
-      <c r="C82" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E82" s="32">
-        <v>6</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="26"/>
+      <c r="H82" s="6"/>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
-        <v>9</v>
-      </c>
-      <c r="B83">
-        <v>902062</v>
-      </c>
-      <c r="C83" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="31">
-        <v>44236</v>
-      </c>
-      <c r="E83" s="32">
-        <v>14</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H83" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="26"/>
+      <c r="H83" s="6"/>
+      <c r="J83" s="15"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
-        <v>22</v>
-      </c>
-      <c r="B84">
-        <v>803348</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E84" s="32">
-        <v>3</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="26"/>
+      <c r="H84" s="6"/>
+      <c r="J84" s="15"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
-        <v>19</v>
-      </c>
-      <c r="B85">
-        <v>400098</v>
-      </c>
-      <c r="C85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E85" s="32">
-        <v>5</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="H85" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A85" s="28"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="26"/>
+      <c r="H85" s="6"/>
+      <c r="J85" s="15"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
-        <v>21</v>
-      </c>
-      <c r="B86">
-        <v>701564</v>
-      </c>
-      <c r="C86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E86" s="32">
-        <v>2</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H86" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A86" s="28"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="26"/>
+      <c r="H86" s="6"/>
+      <c r="J86" s="15"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
-        <v>17</v>
-      </c>
-      <c r="B87">
-        <v>202086</v>
-      </c>
-      <c r="C87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E87" s="32">
-        <v>7</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="H87" s="6">
-        <v>44201</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A87" s="28"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="26"/>
+      <c r="H87" s="6"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
-        <v>17</v>
-      </c>
-      <c r="B88">
-        <v>202086</v>
-      </c>
-      <c r="C88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E88" s="32">
-        <v>7</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="H88" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A88" s="28"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="26"/>
+      <c r="H88" s="6"/>
+      <c r="J88" s="15"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>10742</v>
-      </c>
-      <c r="C89" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E89" s="32">
-        <v>7</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="H89" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A89" s="28"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="26"/>
+      <c r="H89" s="6"/>
+      <c r="J89" s="15"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>10742</v>
-      </c>
-      <c r="C90" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E90" s="32">
-        <v>4</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H90" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="26"/>
+      <c r="H90" s="6"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <v>91174</v>
-      </c>
-      <c r="C91" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E91" s="32">
-        <v>7</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="H91" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="26"/>
+      <c r="H91" s="6"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
-        <v>21</v>
-      </c>
-      <c r="B92">
-        <v>902389</v>
-      </c>
-      <c r="C92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E92" s="32">
-        <v>7</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="H92" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A92" s="28"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="26"/>
+      <c r="H92" s="6"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="30">
-        <v>21</v>
-      </c>
-      <c r="B93">
-        <v>902389</v>
-      </c>
-      <c r="C93" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E93" s="32">
-        <v>7</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H93" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="26"/>
+      <c r="H93" s="6"/>
+      <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="30">
-        <v>12</v>
-      </c>
-      <c r="B94">
-        <v>92856</v>
-      </c>
-      <c r="C94" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E94" s="32">
-        <v>11</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="H94" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A94" s="28"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="26"/>
+      <c r="H94" s="6"/>
+      <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="30">
-        <v>7</v>
-      </c>
-      <c r="B95">
-        <v>41160</v>
-      </c>
-      <c r="C95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="31">
-        <v>44240</v>
-      </c>
-      <c r="E95" s="32">
-        <v>28</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="H95" s="6">
-        <v>44231</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="26"/>
+      <c r="H95" s="6"/>
+      <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
-        <v>17</v>
-      </c>
-      <c r="B96">
-        <v>902196</v>
-      </c>
-      <c r="C96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D96" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E96" s="32">
-        <v>21</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="H96" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A96" s="28"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="26"/>
+      <c r="H96" s="6"/>
+      <c r="J96" s="15"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="30">
-        <v>11</v>
-      </c>
-      <c r="B97">
-        <v>81054</v>
-      </c>
-      <c r="C97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E97" s="32">
-        <v>28</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H97" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A97" s="28"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="26"/>
+      <c r="H97" s="6"/>
+      <c r="J97" s="15"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="30">
-        <v>22</v>
-      </c>
-      <c r="B98">
-        <v>801007</v>
-      </c>
-      <c r="C98" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E98" s="32">
-        <v>14</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="H98" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A98" s="28"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="26"/>
+      <c r="H98" s="6"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="30">
-        <v>5</v>
-      </c>
-      <c r="B99">
-        <v>22792</v>
-      </c>
-      <c r="C99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E99" s="32">
-        <v>10</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="H99" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="26"/>
+      <c r="H99" s="6"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
-        <v>21</v>
-      </c>
-      <c r="B100">
-        <v>901616</v>
-      </c>
-      <c r="C100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D100" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E100" s="32">
-        <v>5</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A100" s="28"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="26"/>
+      <c r="H100" s="6"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
-        <v>18</v>
-      </c>
-      <c r="B101">
-        <v>302241</v>
-      </c>
-      <c r="C101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E101" s="32">
-        <v>10</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="H101" s="6">
-        <v>44227</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A101" s="28"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="26"/>
+      <c r="H101" s="6"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="30">
-        <v>21</v>
-      </c>
-      <c r="B102">
-        <v>704163</v>
-      </c>
-      <c r="C102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E102" s="32">
-        <v>13</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="H102" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="26"/>
+      <c r="H102" s="6"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="30">
-        <v>21</v>
-      </c>
-      <c r="B103">
-        <v>700588</v>
-      </c>
-      <c r="C103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E103" s="32">
-        <v>2</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="H103" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A103" s="28"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="26"/>
+      <c r="H103" s="6"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
-        <v>21</v>
-      </c>
-      <c r="B104">
-        <v>902843</v>
-      </c>
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E104" s="32">
-        <v>14</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="H104" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="26"/>
+      <c r="H104" s="6"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="30">
-        <v>22</v>
-      </c>
-      <c r="B105">
-        <v>800508</v>
-      </c>
-      <c r="C105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E105" s="32">
-        <v>6</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="26"/>
+      <c r="H105" s="6"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="30">
-        <v>4</v>
-      </c>
-      <c r="B106">
-        <v>902536</v>
-      </c>
-      <c r="C106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E106" s="32">
-        <v>6</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H106" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A106" s="28"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="26"/>
+      <c r="H106" s="6"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="30">
-        <v>4</v>
-      </c>
-      <c r="B107">
-        <v>902536</v>
-      </c>
-      <c r="C107" t="s">
-        <v>47</v>
-      </c>
-      <c r="D107" s="31">
-        <v>44244</v>
-      </c>
-      <c r="E107" s="32">
-        <v>8</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="H107" s="6">
-        <v>44212</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A107" s="28"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="26"/>
+      <c r="H107" s="6"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30">
-        <v>11</v>
-      </c>
-      <c r="B108">
-        <v>80688</v>
-      </c>
-      <c r="C108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E108" s="32">
-        <v>7</v>
-      </c>
-      <c r="F108" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="H108" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A108" s="28"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="26"/>
+      <c r="H108" s="6"/>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="30">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>80688</v>
-      </c>
-      <c r="C109" t="s">
-        <v>46</v>
-      </c>
-      <c r="D109" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E109" s="32">
-        <v>2</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="H109" s="6">
-        <v>44228</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A109" s="28"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="26"/>
+      <c r="H109" s="6"/>
+      <c r="J109" s="15"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="30">
-        <v>17</v>
-      </c>
-      <c r="B110">
-        <v>201683</v>
-      </c>
-      <c r="C110" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E110" s="32">
-        <v>10</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="H110" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A110" s="28"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="26"/>
+      <c r="H110" s="6"/>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="30">
-        <v>18</v>
-      </c>
-      <c r="B111">
-        <v>300839</v>
-      </c>
-      <c r="C111" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E111" s="32">
-        <v>14</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="H111" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A111" s="28"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="26"/>
+      <c r="H111" s="6"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="30">
-        <v>15</v>
-      </c>
-      <c r="B112">
-        <v>120653</v>
-      </c>
-      <c r="C112" t="s">
-        <v>46</v>
-      </c>
-      <c r="D112" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E112" s="32">
-        <v>10</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="H112" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A112" s="28"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="26"/>
+      <c r="H112" s="6"/>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
-        <v>17</v>
-      </c>
-      <c r="B113">
-        <v>201746</v>
-      </c>
-      <c r="C113" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E113" s="32">
-        <v>7</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H113" s="6">
-        <v>44199</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A113" s="28"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="26"/>
+      <c r="H113" s="6"/>
+      <c r="J113" s="15"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="30">
-        <v>17</v>
-      </c>
-      <c r="B114">
-        <v>201746</v>
-      </c>
-      <c r="C114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D114" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E114" s="32">
-        <v>11</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="H114" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A114" s="28"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="26"/>
+      <c r="H114" s="6"/>
+      <c r="J114" s="15"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="30">
-        <v>4</v>
-      </c>
-      <c r="B115">
-        <v>11658</v>
-      </c>
-      <c r="C115" t="s">
-        <v>46</v>
-      </c>
-      <c r="D115" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E115" s="32">
-        <v>14</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="H115" s="6">
-        <v>44226</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A115" s="28"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="26"/>
+      <c r="H115" s="6"/>
+      <c r="J115" s="15"/>
     </row>
     <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="30">
-        <v>21</v>
-      </c>
-      <c r="B116">
-        <v>701047</v>
-      </c>
-      <c r="C116" t="s">
-        <v>46</v>
-      </c>
-      <c r="D116" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E116" s="32">
-        <v>7</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H116" s="6">
-        <v>44203</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A116" s="28"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="26"/>
+      <c r="H116" s="6"/>
+      <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="30">
-        <v>21</v>
-      </c>
-      <c r="B117">
-        <v>701047</v>
-      </c>
-      <c r="C117" t="s">
-        <v>47</v>
-      </c>
-      <c r="D117" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E117" s="32">
-        <v>7</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H117" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="26"/>
+      <c r="H117" s="6"/>
+      <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="30">
-        <v>18</v>
-      </c>
-      <c r="B118">
-        <v>302384</v>
-      </c>
-      <c r="C118" t="s">
-        <v>46</v>
-      </c>
-      <c r="D118" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E118" s="32">
-        <v>14</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H118" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A118" s="28"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="26"/>
+      <c r="H118" s="6"/>
+      <c r="J118" s="15"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="30">
-        <v>10</v>
-      </c>
-      <c r="B119">
-        <v>70764</v>
-      </c>
-      <c r="C119" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E119" s="32">
-        <v>4</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="H119" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A119" s="28"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="26"/>
+      <c r="H119" s="6"/>
+      <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="30">
-        <v>10</v>
-      </c>
-      <c r="B120">
-        <v>70764</v>
-      </c>
-      <c r="C120" t="s">
-        <v>47</v>
-      </c>
-      <c r="D120" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E120" s="32">
-        <v>7</v>
-      </c>
-      <c r="F120" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H120" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A120" s="28"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="26"/>
+      <c r="H120" s="6"/>
+      <c r="J120" s="15"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="30">
-        <v>12</v>
-      </c>
-      <c r="B121">
-        <v>902979</v>
-      </c>
-      <c r="C121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E121" s="32">
-        <v>4</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H121" s="6">
-        <v>44204</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A121" s="28"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="26"/>
+      <c r="H121" s="6"/>
+      <c r="J121" s="15"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="30">
-        <v>13</v>
-      </c>
-      <c r="B122">
-        <v>100326</v>
-      </c>
-      <c r="C122" t="s">
-        <v>47</v>
-      </c>
-      <c r="D122" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E122" s="32">
-        <v>10</v>
-      </c>
-      <c r="F122" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="H122" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A122" s="28"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="26"/>
+      <c r="H122" s="6"/>
+      <c r="J122" s="15"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="30">
-        <v>21</v>
-      </c>
-      <c r="B123">
-        <v>904121</v>
-      </c>
-      <c r="C123" t="s">
-        <v>46</v>
-      </c>
-      <c r="D123" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E123" s="32">
-        <v>3</v>
-      </c>
-      <c r="F123" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="H123" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A123" s="28"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="26"/>
+      <c r="H123" s="6"/>
+      <c r="J123" s="15"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="30">
-        <v>21</v>
-      </c>
-      <c r="B124">
-        <v>901101</v>
-      </c>
-      <c r="C124" t="s">
-        <v>46</v>
-      </c>
-      <c r="D124" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E124" s="32">
-        <v>4</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H124" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A124" s="28"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="26"/>
+      <c r="H124" s="6"/>
+      <c r="J124" s="15"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="30">
-        <v>21</v>
-      </c>
-      <c r="B125">
-        <v>901101</v>
-      </c>
-      <c r="C125" t="s">
-        <v>46</v>
-      </c>
-      <c r="D125" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E125" s="32">
-        <v>14</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="H125" s="6">
-        <v>44211</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A125" s="28"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="26"/>
+      <c r="H125" s="6"/>
+      <c r="J125" s="15"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="30">
-        <v>13</v>
-      </c>
-      <c r="B126">
-        <v>100156</v>
-      </c>
-      <c r="C126" t="s">
-        <v>47</v>
-      </c>
-      <c r="D126" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E126" s="32">
-        <v>7</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H126" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A126" s="28"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="26"/>
+      <c r="H126" s="6"/>
+      <c r="J126" s="15"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="30">
-        <v>13</v>
-      </c>
-      <c r="B127">
-        <v>100156</v>
-      </c>
-      <c r="C127" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E127" s="32">
-        <v>7</v>
-      </c>
-      <c r="F127" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="H127" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A127" s="28"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="26"/>
+      <c r="H127" s="6"/>
+      <c r="J127" s="15"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="30">
-        <v>13</v>
-      </c>
-      <c r="B128">
-        <v>100156</v>
-      </c>
-      <c r="C128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="31">
-        <v>44242</v>
-      </c>
-      <c r="E128" s="32">
-        <v>7</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H128" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A128" s="28"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="26"/>
+      <c r="H128" s="6"/>
+      <c r="J128" s="15"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="30">
-        <v>21</v>
-      </c>
-      <c r="B129">
-        <v>703937</v>
-      </c>
-      <c r="C129" t="s">
-        <v>46</v>
-      </c>
-      <c r="D129" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E129" s="32">
-        <v>7</v>
-      </c>
-      <c r="F129" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H129" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A129" s="28"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="26"/>
+      <c r="H129" s="6"/>
+      <c r="J129" s="15"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="30">
-        <v>21</v>
-      </c>
-      <c r="B130">
-        <v>703937</v>
-      </c>
-      <c r="C130" t="s">
-        <v>47</v>
-      </c>
-      <c r="D130" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E130" s="32">
-        <v>7</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H130" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A130" s="28"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="26"/>
+      <c r="H130" s="6"/>
+      <c r="J130" s="15"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="30">
-        <v>12</v>
-      </c>
-      <c r="B131">
-        <v>93399</v>
-      </c>
-      <c r="C131" t="s">
-        <v>47</v>
-      </c>
-      <c r="D131" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E131" s="32">
-        <v>21</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="H131" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A131" s="28"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="26"/>
+      <c r="H131" s="6"/>
+      <c r="J131" s="15"/>
     </row>
     <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="30">
-        <v>19</v>
-      </c>
-      <c r="B132">
-        <v>400327</v>
-      </c>
-      <c r="C132" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E132" s="32">
-        <v>3</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H132" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A132" s="28"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="26"/>
+      <c r="H132" s="6"/>
+      <c r="J132" s="15"/>
     </row>
     <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="30">
-        <v>18</v>
-      </c>
-      <c r="B133">
-        <v>902625</v>
-      </c>
-      <c r="C133" t="s">
-        <v>47</v>
-      </c>
-      <c r="D133" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E133" s="32">
-        <v>5</v>
-      </c>
-      <c r="F133" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H133" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A133" s="28"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="26"/>
+      <c r="H133" s="6"/>
+      <c r="J133" s="15"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="30">
-        <v>21</v>
-      </c>
-      <c r="B134">
-        <v>703400</v>
-      </c>
-      <c r="C134" t="s">
-        <v>46</v>
-      </c>
-      <c r="D134" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E134" s="32">
-        <v>3</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="H134" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A134" s="28"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="26"/>
+      <c r="H134" s="6"/>
+      <c r="J134" s="15"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="30">
-        <v>21</v>
-      </c>
-      <c r="B135">
-        <v>703400</v>
-      </c>
-      <c r="C135" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E135" s="32">
-        <v>5</v>
-      </c>
-      <c r="F135" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H135" s="6">
-        <v>44227</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A135" s="28"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="26"/>
+      <c r="H135" s="6"/>
+      <c r="J135" s="15"/>
     </row>
     <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="30">
-        <v>12</v>
-      </c>
-      <c r="B136">
-        <v>92350</v>
-      </c>
-      <c r="C136" t="s">
-        <v>46</v>
-      </c>
-      <c r="D136" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E136" s="32">
-        <v>14</v>
-      </c>
-      <c r="F136" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="H136" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="26"/>
+      <c r="H136" s="6"/>
+      <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="30">
-        <v>12</v>
-      </c>
-      <c r="B137">
-        <v>92350</v>
-      </c>
-      <c r="C137" t="s">
-        <v>47</v>
-      </c>
-      <c r="D137" s="31">
-        <v>44242</v>
-      </c>
-      <c r="E137" s="32">
-        <v>13</v>
-      </c>
-      <c r="F137" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="H137" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A137" s="28"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="26"/>
+      <c r="H137" s="6"/>
+      <c r="J137" s="15"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="30">
-        <v>10</v>
-      </c>
-      <c r="B138">
-        <v>70972</v>
-      </c>
-      <c r="C138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E138" s="32">
-        <v>10</v>
-      </c>
-      <c r="F138" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="H138" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A138" s="28"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="26"/>
+      <c r="H138" s="6"/>
+      <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="30">
-        <v>8</v>
-      </c>
-      <c r="B139">
-        <v>50653</v>
-      </c>
-      <c r="C139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E139" s="32">
-        <v>3</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="H139" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A139" s="28"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="26"/>
+      <c r="H139" s="6"/>
+      <c r="J139" s="15"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="30">
-        <v>8</v>
-      </c>
-      <c r="B140">
-        <v>50653</v>
-      </c>
-      <c r="C140" t="s">
-        <v>46</v>
-      </c>
-      <c r="D140" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E140" s="32">
-        <v>7</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H140" s="6">
-        <v>44193</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A140" s="28"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="26"/>
+      <c r="H140" s="6"/>
+      <c r="J140" s="15"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="30">
-        <v>8</v>
-      </c>
-      <c r="B141">
-        <v>50653</v>
-      </c>
-      <c r="C141" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141" s="31">
-        <v>44238</v>
-      </c>
-      <c r="E141" s="32">
-        <v>7</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="H141" s="6">
-        <v>44200</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A141" s="28"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="26"/>
+      <c r="H141" s="6"/>
+      <c r="J141" s="15"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="30">
-        <v>21</v>
-      </c>
-      <c r="B142">
-        <v>701116</v>
-      </c>
-      <c r="C142" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E142" s="32">
-        <v>14</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="H142" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A142" s="28"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="26"/>
+      <c r="H142" s="6"/>
+      <c r="J142" s="15"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="30">
-        <v>18</v>
-      </c>
-      <c r="B143">
-        <v>902595</v>
-      </c>
-      <c r="C143" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E143" s="32">
-        <v>7</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="H143" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A143" s="28"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="26"/>
+      <c r="H143" s="6"/>
+      <c r="J143" s="15"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="30">
-        <v>11</v>
-      </c>
-      <c r="B144">
-        <v>80055</v>
-      </c>
-      <c r="C144" t="s">
-        <v>46</v>
-      </c>
-      <c r="D144" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E144" s="32">
-        <v>3</v>
-      </c>
-      <c r="F144" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="H144" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A144" s="28"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="26"/>
+      <c r="H144" s="6"/>
+      <c r="J144" s="15"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="30">
-        <v>18</v>
-      </c>
-      <c r="B145">
-        <v>301659</v>
-      </c>
-      <c r="C145" t="s">
-        <v>46</v>
-      </c>
-      <c r="D145" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E145" s="32">
-        <v>7</v>
-      </c>
-      <c r="F145" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="H145" s="6">
-        <v>44209</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A145" s="28"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="26"/>
+      <c r="H145" s="6"/>
+      <c r="J145" s="15"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="30">
-        <v>12</v>
-      </c>
-      <c r="B146">
-        <v>92484</v>
-      </c>
-      <c r="C146" t="s">
-        <v>46</v>
-      </c>
-      <c r="D146" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E146" s="32">
-        <v>14</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H146" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A146" s="28"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="26"/>
+      <c r="H146" s="6"/>
+      <c r="J146" s="15"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="30">
-        <v>19</v>
-      </c>
-      <c r="B147">
-        <v>401121</v>
-      </c>
-      <c r="C147" t="s">
-        <v>46</v>
-      </c>
-      <c r="D147" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E147" s="32">
-        <v>7</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="H147" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A147" s="28"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="26"/>
+      <c r="H147" s="6"/>
+      <c r="J147" s="15"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="30">
-        <v>20</v>
-      </c>
-      <c r="B148">
-        <v>903502</v>
-      </c>
-      <c r="C148" t="s">
-        <v>46</v>
-      </c>
-      <c r="D148" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E148" s="32">
-        <v>14</v>
-      </c>
-      <c r="F148" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="H148" s="6">
-        <v>44204</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A148" s="28"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="26"/>
+      <c r="H148" s="6"/>
+      <c r="J148" s="15"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="30">
-        <v>21</v>
-      </c>
-      <c r="B149">
-        <v>700362</v>
-      </c>
-      <c r="C149" t="s">
-        <v>46</v>
-      </c>
-      <c r="D149" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E149" s="32">
-        <v>8</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H149" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A149" s="28"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="26"/>
+      <c r="H149" s="6"/>
+      <c r="J149" s="15"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="30">
-        <v>21</v>
-      </c>
-      <c r="B150">
-        <v>700362</v>
-      </c>
-      <c r="C150" t="s">
-        <v>47</v>
-      </c>
-      <c r="D150" s="31">
-        <v>44236</v>
-      </c>
-      <c r="E150" s="32">
-        <v>2</v>
-      </c>
-      <c r="F150" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H150" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A150" s="28"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="26"/>
+      <c r="H150" s="6"/>
+      <c r="J150" s="15"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="30">
-        <v>17</v>
-      </c>
-      <c r="B151">
-        <v>202343</v>
-      </c>
-      <c r="C151" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E151" s="32">
-        <v>7</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="H151" s="6">
-        <v>44201</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A151" s="28"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="26"/>
+      <c r="H151" s="6"/>
+      <c r="J151" s="15"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="30">
-        <v>17</v>
-      </c>
-      <c r="B152">
-        <v>202343</v>
-      </c>
-      <c r="C152" t="s">
-        <v>46</v>
-      </c>
-      <c r="D152" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E152" s="32">
-        <v>7</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="H152" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A152" s="28"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="26"/>
+      <c r="H152" s="6"/>
+      <c r="J152" s="15"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="30">
-        <v>17</v>
-      </c>
-      <c r="B153">
-        <v>202343</v>
-      </c>
-      <c r="C153" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" s="31">
-        <v>44242</v>
-      </c>
-      <c r="E153" s="32">
-        <v>7</v>
-      </c>
-      <c r="F153" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="H153" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A153" s="28"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="26"/>
+      <c r="H153" s="6"/>
+      <c r="J153" s="15"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="30">
-        <v>21</v>
-      </c>
-      <c r="B154">
-        <v>700003</v>
-      </c>
-      <c r="C154" t="s">
-        <v>47</v>
-      </c>
-      <c r="D154" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E154" s="32">
-        <v>6</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="H154" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A154" s="28"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="26"/>
+      <c r="H154" s="6"/>
+      <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="30">
-        <v>21</v>
-      </c>
-      <c r="B155">
-        <v>700003</v>
-      </c>
-      <c r="C155" t="s">
-        <v>47</v>
-      </c>
-      <c r="D155" s="31">
-        <v>44238</v>
-      </c>
-      <c r="E155" s="32">
-        <v>6</v>
-      </c>
-      <c r="F155" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H155" s="6">
-        <v>44201</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A155" s="28"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="26"/>
+      <c r="H155" s="6"/>
+      <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="30">
-        <v>21</v>
-      </c>
-      <c r="B156">
-        <v>703561</v>
-      </c>
-      <c r="C156" t="s">
-        <v>47</v>
-      </c>
-      <c r="D156" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E156" s="32">
-        <v>6</v>
-      </c>
-      <c r="F156" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H156" s="6">
-        <v>43850</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A156" s="28"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="26"/>
+      <c r="H156" s="6"/>
+      <c r="J156" s="15"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="30">
-        <v>21</v>
-      </c>
-      <c r="B157">
-        <v>703561</v>
-      </c>
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-      <c r="D157" s="31">
-        <v>44244</v>
-      </c>
-      <c r="E157" s="32">
-        <v>3</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="H157" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A157" s="28"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="26"/>
+      <c r="H157" s="6"/>
+      <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="30">
-        <v>17</v>
-      </c>
-      <c r="B158">
-        <v>201750</v>
-      </c>
-      <c r="C158" t="s">
-        <v>46</v>
-      </c>
-      <c r="D158" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E158" s="32">
-        <v>4</v>
-      </c>
-      <c r="F158" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="H158" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A158" s="28"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="26"/>
+      <c r="H158" s="6"/>
+      <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="30">
-        <v>11</v>
-      </c>
-      <c r="B159">
-        <v>904062</v>
-      </c>
-      <c r="C159" t="s">
-        <v>46</v>
-      </c>
-      <c r="D159" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E159" s="32">
-        <v>3</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H159" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A159" s="28"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="26"/>
+      <c r="H159" s="6"/>
+      <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="30">
-        <v>11</v>
-      </c>
-      <c r="B160">
-        <v>904062</v>
-      </c>
-      <c r="C160" t="s">
-        <v>47</v>
-      </c>
-      <c r="D160" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E160" s="32">
-        <v>7</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H160" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A160" s="28"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="26"/>
+      <c r="H160" s="6"/>
+      <c r="J160" s="15"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="30">
-        <v>11</v>
-      </c>
-      <c r="B161">
-        <v>904062</v>
-      </c>
-      <c r="C161" t="s">
-        <v>46</v>
-      </c>
-      <c r="D161" s="31">
-        <v>44238</v>
-      </c>
-      <c r="E161" s="32">
-        <v>7</v>
-      </c>
-      <c r="F161" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="H161" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A161" s="28"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="26"/>
+      <c r="H161" s="6"/>
+      <c r="J161" s="15"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="30">
-        <v>7</v>
-      </c>
-      <c r="B162">
-        <v>40981</v>
-      </c>
-      <c r="C162" t="s">
-        <v>46</v>
-      </c>
-      <c r="D162" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E162" s="32">
-        <v>3</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="H162" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A162" s="28"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="26"/>
+      <c r="H162" s="6"/>
+      <c r="J162" s="15"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="30">
-        <v>19</v>
-      </c>
-      <c r="B163">
-        <v>401063</v>
-      </c>
-      <c r="C163" t="s">
-        <v>46</v>
-      </c>
-      <c r="D163" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E163" s="32">
-        <v>3</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H163" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A163" s="28"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="26"/>
+      <c r="H163" s="6"/>
+      <c r="J163" s="15"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="30">
-        <v>22</v>
-      </c>
-      <c r="B164">
-        <v>803748</v>
-      </c>
-      <c r="C164" t="s">
-        <v>46</v>
-      </c>
-      <c r="D164" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E164" s="32">
-        <v>1</v>
-      </c>
-      <c r="F164" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H164" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A164" s="28"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="26"/>
+      <c r="H164" s="6"/>
+      <c r="J164" s="15"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="30">
-        <v>20</v>
-      </c>
-      <c r="B165">
-        <v>903149</v>
-      </c>
-      <c r="C165" t="s">
-        <v>47</v>
-      </c>
-      <c r="D165" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E165" s="32">
-        <v>7</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="H165" s="6">
-        <v>44218</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A165" s="28"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="26"/>
+      <c r="H165" s="6"/>
+      <c r="J165" s="15"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="30">
-        <v>20</v>
-      </c>
-      <c r="B166">
-        <v>903149</v>
-      </c>
-      <c r="C166" t="s">
-        <v>47</v>
-      </c>
-      <c r="D166" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E166" s="32">
-        <v>7</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="H166" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A166" s="28"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="26"/>
+      <c r="H166" s="6"/>
+      <c r="J166" s="15"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="30">
-        <v>21</v>
-      </c>
-      <c r="B167">
-        <v>700369</v>
-      </c>
-      <c r="C167" t="s">
-        <v>60</v>
-      </c>
-      <c r="D167" s="31">
-        <v>44238</v>
-      </c>
-      <c r="E167" s="32">
-        <v>28</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="H167" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A167" s="28"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="26"/>
+      <c r="H167" s="6"/>
+      <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="30">
-        <v>18</v>
-      </c>
-      <c r="B168">
-        <v>300736</v>
-      </c>
-      <c r="C168" t="s">
-        <v>46</v>
-      </c>
-      <c r="D168" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E168" s="32">
-        <v>7</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H168" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A168" s="28"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="26"/>
+      <c r="H168" s="6"/>
+      <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="30">
-        <v>18</v>
-      </c>
-      <c r="B169">
-        <v>300736</v>
-      </c>
-      <c r="C169" t="s">
-        <v>46</v>
-      </c>
-      <c r="D169" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E169" s="32">
-        <v>4</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="H169" s="6">
-        <v>44228</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A169" s="28"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="26"/>
+      <c r="H169" s="6"/>
+      <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="30">
-        <v>21</v>
-      </c>
-      <c r="B170">
-        <v>700083</v>
-      </c>
-      <c r="C170" t="s">
-        <v>46</v>
-      </c>
-      <c r="D170" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E170" s="32">
-        <v>9</v>
-      </c>
-      <c r="F170" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H170" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A170" s="28"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="26"/>
+      <c r="H170" s="6"/>
+      <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="30">
-        <v>18</v>
-      </c>
-      <c r="B171">
-        <v>302333</v>
-      </c>
-      <c r="C171" t="s">
-        <v>46</v>
-      </c>
-      <c r="D171" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E171" s="32">
-        <v>14</v>
-      </c>
-      <c r="F171" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="H171" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A171" s="28"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="26"/>
+      <c r="H171" s="6"/>
+      <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="30">
-        <v>18</v>
-      </c>
-      <c r="B172">
-        <v>302333</v>
-      </c>
-      <c r="C172" t="s">
-        <v>47</v>
-      </c>
-      <c r="D172" s="31">
-        <v>44242</v>
-      </c>
-      <c r="E172" s="32">
-        <v>7</v>
-      </c>
-      <c r="F172" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="H172" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A172" s="28"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="26"/>
+      <c r="H172" s="6"/>
+      <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="30">
-        <v>22</v>
-      </c>
-      <c r="B173">
-        <v>803705</v>
-      </c>
-      <c r="C173" t="s">
-        <v>46</v>
-      </c>
-      <c r="D173" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E173" s="32">
-        <v>14</v>
-      </c>
-      <c r="F173" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="H173" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A173" s="28"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="26"/>
+      <c r="H173" s="6"/>
+      <c r="J173" s="15"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="30">
-        <v>21</v>
-      </c>
-      <c r="B174">
-        <v>702906</v>
-      </c>
-      <c r="C174" t="s">
-        <v>46</v>
-      </c>
-      <c r="D174" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E174" s="32">
-        <v>3</v>
-      </c>
-      <c r="F174" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H174" s="6">
-        <v>44226</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A174" s="28"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="26"/>
+      <c r="H174" s="6"/>
+      <c r="J174" s="15"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="30">
-        <v>20</v>
-      </c>
-      <c r="B175">
-        <v>902902</v>
-      </c>
-      <c r="C175" t="s">
-        <v>46</v>
-      </c>
-      <c r="D175" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E175" s="32">
-        <v>6</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="H175" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A175" s="28"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="26"/>
+      <c r="H175" s="6"/>
+      <c r="J175" s="15"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="30">
-        <v>20</v>
-      </c>
-      <c r="B176">
-        <v>902902</v>
-      </c>
-      <c r="C176" t="s">
-        <v>47</v>
-      </c>
-      <c r="D176" s="31">
-        <v>44244</v>
-      </c>
-      <c r="E176" s="32">
-        <v>6</v>
-      </c>
-      <c r="F176" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H176" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A176" s="28"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="26"/>
+      <c r="H176" s="6"/>
+      <c r="J176" s="15"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="30">
-        <v>20</v>
-      </c>
-      <c r="B177">
-        <v>902902</v>
-      </c>
-      <c r="C177" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" s="31">
-        <v>44240</v>
-      </c>
-      <c r="E177" s="32">
-        <v>2</v>
-      </c>
-      <c r="F177" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="H177" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A177" s="28"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="26"/>
+      <c r="H177" s="6"/>
+      <c r="J177" s="15"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="30">
-        <v>22</v>
-      </c>
-      <c r="B178">
-        <v>803559</v>
-      </c>
-      <c r="C178" t="s">
-        <v>47</v>
-      </c>
-      <c r="D178" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E178" s="32">
-        <v>5</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="H178" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A178" s="28"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="26"/>
+      <c r="H178" s="6"/>
+      <c r="J178" s="15"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="30">
-        <v>10</v>
-      </c>
-      <c r="B179">
-        <v>70708</v>
-      </c>
-      <c r="C179" t="s">
-        <v>46</v>
-      </c>
-      <c r="D179" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E179" s="32">
-        <v>7</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="H179" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A179" s="28"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="26"/>
+      <c r="H179" s="6"/>
+      <c r="J179" s="15"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="30">
-        <v>10</v>
-      </c>
-      <c r="B180">
-        <v>70708</v>
-      </c>
-      <c r="C180" t="s">
-        <v>47</v>
-      </c>
-      <c r="D180" s="31">
-        <v>44235</v>
-      </c>
-      <c r="E180" s="32">
-        <v>4</v>
-      </c>
-      <c r="F180" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="H180" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A180" s="28"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="26"/>
+      <c r="H180" s="6"/>
+      <c r="J180" s="15"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="30">
-        <v>21</v>
-      </c>
-      <c r="B181">
-        <v>703238</v>
-      </c>
-      <c r="C181" t="s">
-        <v>47</v>
-      </c>
-      <c r="D181" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E181" s="32">
-        <v>5</v>
-      </c>
-      <c r="F181" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H181" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A181" s="28"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="26"/>
+      <c r="H181" s="6"/>
+      <c r="J181" s="15"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="30">
-        <v>4</v>
-      </c>
-      <c r="B182">
-        <v>11858</v>
-      </c>
-      <c r="C182" t="s">
-        <v>46</v>
-      </c>
-      <c r="D182" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E182" s="32">
-        <v>7</v>
-      </c>
-      <c r="F182" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H182" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A182" s="28"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="26"/>
+      <c r="H182" s="6"/>
+      <c r="J182" s="15"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="30">
-        <v>22</v>
-      </c>
-      <c r="B183">
-        <v>901580</v>
-      </c>
-      <c r="C183" t="s">
-        <v>46</v>
-      </c>
-      <c r="D183" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E183" s="32">
-        <v>5</v>
-      </c>
-      <c r="F183" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H183" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A183" s="28"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="26"/>
+      <c r="H183" s="6"/>
+      <c r="J183" s="15"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="30">
-        <v>7</v>
-      </c>
-      <c r="B184">
-        <v>41192</v>
-      </c>
-      <c r="C184" t="s">
-        <v>47</v>
-      </c>
-      <c r="D184" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E184" s="32">
-        <v>10</v>
-      </c>
-      <c r="F184" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H184" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A184" s="28"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="26"/>
+      <c r="H184" s="6"/>
+      <c r="J184" s="15"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="30">
-        <v>21</v>
-      </c>
-      <c r="B185">
-        <v>702149</v>
-      </c>
-      <c r="C185" t="s">
-        <v>46</v>
-      </c>
-      <c r="D185" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E185" s="32">
-        <v>12</v>
-      </c>
-      <c r="F185" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="H185" s="6">
-        <v>44204</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A185" s="28"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="26"/>
+      <c r="H185" s="6"/>
+      <c r="J185" s="15"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="30">
-        <v>22</v>
-      </c>
-      <c r="B186">
-        <v>803411</v>
-      </c>
-      <c r="C186" t="s">
-        <v>47</v>
-      </c>
-      <c r="D186" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E186" s="32">
-        <v>5</v>
-      </c>
-      <c r="F186" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="H186" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A186" s="28"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="26"/>
+      <c r="H186" s="6"/>
+      <c r="J186" s="15"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="30">
-        <v>4</v>
-      </c>
-      <c r="B187">
-        <v>901824</v>
-      </c>
-      <c r="C187" t="s">
-        <v>46</v>
-      </c>
-      <c r="D187" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E187" s="32">
-        <v>14</v>
-      </c>
-      <c r="F187" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="H187" s="6">
-        <v>44196</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A187" s="28"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="26"/>
+      <c r="H187" s="6"/>
+      <c r="J187" s="15"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="30">
-        <v>4</v>
-      </c>
-      <c r="B188">
-        <v>901824</v>
-      </c>
-      <c r="C188" t="s">
-        <v>47</v>
-      </c>
-      <c r="D188" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E188" s="32">
-        <v>3</v>
-      </c>
-      <c r="F188" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H188" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A188" s="28"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="26"/>
+      <c r="H188" s="6"/>
+      <c r="J188" s="15"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="30">
-        <v>17</v>
-      </c>
-      <c r="B189">
-        <v>201004</v>
-      </c>
-      <c r="C189" t="s">
-        <v>47</v>
-      </c>
-      <c r="D189" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E189" s="32">
-        <v>7</v>
-      </c>
-      <c r="F189" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H189" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A189" s="28"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="26"/>
+      <c r="H189" s="6"/>
+      <c r="J189" s="15"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="30">
-        <v>22</v>
-      </c>
-      <c r="B190">
-        <v>803404</v>
-      </c>
-      <c r="C190" t="s">
-        <v>46</v>
-      </c>
-      <c r="D190" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E190" s="32">
-        <v>7</v>
-      </c>
-      <c r="F190" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H190" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A190" s="28"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="26"/>
+      <c r="H190" s="6"/>
+      <c r="J190" s="15"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="30">
-        <v>19</v>
-      </c>
-      <c r="B191">
-        <v>904510</v>
-      </c>
-      <c r="C191" t="s">
-        <v>46</v>
-      </c>
-      <c r="D191" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E191" s="32">
-        <v>10</v>
-      </c>
-      <c r="F191" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="H191" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A191" s="28"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="26"/>
+      <c r="H191" s="6"/>
+      <c r="J191" s="15"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="30">
-        <v>20</v>
-      </c>
-      <c r="B192">
-        <v>902113</v>
-      </c>
-      <c r="C192" t="s">
-        <v>46</v>
-      </c>
-      <c r="D192" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E192" s="32">
-        <v>2</v>
-      </c>
-      <c r="F192" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="H192" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A192" s="28"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="26"/>
+      <c r="H192" s="6"/>
+      <c r="J192" s="15"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="30">
-        <v>16</v>
-      </c>
-      <c r="B193">
-        <v>130290</v>
-      </c>
-      <c r="C193" t="s">
-        <v>46</v>
-      </c>
-      <c r="D193" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E193" s="32">
-        <v>5</v>
-      </c>
-      <c r="F193" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="H193" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A193" s="28"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="26"/>
+      <c r="H193" s="6"/>
+      <c r="J193" s="15"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="30">
-        <v>19</v>
-      </c>
-      <c r="B194">
-        <v>400704</v>
-      </c>
-      <c r="C194" t="s">
-        <v>47</v>
-      </c>
-      <c r="D194" s="31">
-        <v>44240</v>
-      </c>
-      <c r="E194" s="32">
-        <v>14</v>
-      </c>
-      <c r="F194" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="H194" s="6">
-        <v>44228</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A194" s="28"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="30"/>
+      <c r="F194" s="26"/>
+      <c r="H194" s="6"/>
+      <c r="J194" s="15"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="30">
-        <v>17</v>
-      </c>
-      <c r="B195">
-        <v>902656</v>
-      </c>
-      <c r="C195" t="s">
-        <v>47</v>
-      </c>
-      <c r="D195" s="31">
-        <v>44230</v>
-      </c>
-      <c r="E195" s="32">
-        <v>7</v>
-      </c>
-      <c r="F195" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="H195" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A195" s="28"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="26"/>
+      <c r="H195" s="6"/>
+      <c r="J195" s="15"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="30">
-        <v>17</v>
-      </c>
-      <c r="B196">
-        <v>902656</v>
-      </c>
-      <c r="C196" t="s">
-        <v>47</v>
-      </c>
-      <c r="D196" s="31">
-        <v>44237</v>
-      </c>
-      <c r="E196" s="32">
-        <v>7</v>
-      </c>
-      <c r="F196" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="H196" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A196" s="28"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="26"/>
+      <c r="H196" s="6"/>
+      <c r="J196" s="15"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="30">
-        <v>11</v>
-      </c>
-      <c r="B197">
-        <v>80139</v>
-      </c>
-      <c r="C197" t="s">
-        <v>47</v>
-      </c>
-      <c r="D197" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E197" s="32">
-        <v>4</v>
-      </c>
-      <c r="F197" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="H197" s="6">
-        <v>44214</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="J197" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A197" s="28"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="26"/>
+      <c r="H197" s="6"/>
+      <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="30">
-        <v>22</v>
-      </c>
-      <c r="B198">
-        <v>800017</v>
-      </c>
-      <c r="C198" t="s">
-        <v>47</v>
-      </c>
-      <c r="D198" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E198" s="32">
-        <v>28</v>
-      </c>
-      <c r="F198" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="H198" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A198" s="28"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="26"/>
+      <c r="H198" s="6"/>
+      <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="30">
-        <v>11</v>
-      </c>
-      <c r="B199">
-        <v>80990</v>
-      </c>
-      <c r="C199" t="s">
-        <v>47</v>
-      </c>
-      <c r="D199" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E199" s="32">
-        <v>7</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="H199" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A199" s="28"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="26"/>
+      <c r="H199" s="6"/>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="30">
-        <v>21</v>
-      </c>
-      <c r="B200">
-        <v>901481</v>
-      </c>
-      <c r="C200" t="s">
-        <v>46</v>
-      </c>
-      <c r="D200" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E200" s="32">
-        <v>3</v>
-      </c>
-      <c r="F200" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="H200" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="J200" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A200" s="28"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="26"/>
+      <c r="H200" s="6"/>
+      <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="30">
-        <v>8</v>
-      </c>
-      <c r="B201">
-        <v>50614</v>
-      </c>
-      <c r="C201" t="s">
-        <v>46</v>
-      </c>
-      <c r="D201" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E201" s="32">
-        <v>3</v>
-      </c>
-      <c r="F201" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="H201" s="6">
-        <v>44158</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A201" s="28"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="26"/>
+      <c r="H201" s="6"/>
+      <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="30">
-        <v>8</v>
-      </c>
-      <c r="B202">
-        <v>50614</v>
-      </c>
-      <c r="C202" t="s">
-        <v>46</v>
-      </c>
-      <c r="D202" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E202" s="32">
-        <v>5</v>
-      </c>
-      <c r="F202" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="H202" s="6">
-        <v>44161</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A202" s="28"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="26"/>
+      <c r="H202" s="6"/>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="30">
-        <v>8</v>
-      </c>
-      <c r="B203">
-        <v>50614</v>
-      </c>
-      <c r="C203" t="s">
-        <v>46</v>
-      </c>
-      <c r="D203" s="31">
-        <v>44236</v>
-      </c>
-      <c r="E203" s="32">
-        <v>5</v>
-      </c>
-      <c r="F203" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="H203" s="6">
-        <v>44167</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A203" s="28"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="26"/>
+      <c r="H203" s="6"/>
+      <c r="J203" s="15"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="30">
-        <v>8</v>
-      </c>
-      <c r="B204">
-        <v>50614</v>
-      </c>
-      <c r="C204" t="s">
-        <v>46</v>
-      </c>
-      <c r="D204" s="31">
-        <v>44241</v>
-      </c>
-      <c r="E204" s="32">
-        <v>1</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="H204" s="6">
-        <v>44174</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A204" s="28"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="26"/>
+      <c r="H204" s="6"/>
+      <c r="J204" s="15"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="30">
-        <v>5</v>
-      </c>
-      <c r="B205">
-        <v>903508</v>
-      </c>
-      <c r="C205" t="s">
-        <v>46</v>
-      </c>
-      <c r="D205" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E205" s="32">
-        <v>5</v>
-      </c>
-      <c r="F205" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="H205" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A205" s="28"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="26"/>
+      <c r="H205" s="6"/>
+      <c r="J205" s="15"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="30">
-        <v>5</v>
-      </c>
-      <c r="B206">
-        <v>903508</v>
-      </c>
-      <c r="C206" t="s">
-        <v>47</v>
-      </c>
-      <c r="D206" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E206" s="32">
-        <v>5</v>
-      </c>
-      <c r="F206" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H206" s="6">
-        <v>44212</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A206" s="28"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="26"/>
+      <c r="H206" s="6"/>
+      <c r="J206" s="15"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="30">
-        <v>5</v>
-      </c>
-      <c r="B207">
-        <v>903508</v>
-      </c>
-      <c r="C207" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" s="31">
-        <v>44238</v>
-      </c>
-      <c r="E207" s="32">
-        <v>2</v>
-      </c>
-      <c r="F207" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="H207" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A207" s="28"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="26"/>
+      <c r="H207" s="6"/>
+      <c r="J207" s="15"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="30">
-        <v>17</v>
-      </c>
-      <c r="B208">
-        <v>201504</v>
-      </c>
-      <c r="C208" t="s">
-        <v>46</v>
-      </c>
-      <c r="D208" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E208" s="32">
-        <v>5</v>
-      </c>
-      <c r="F208" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="H208" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A208" s="28"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="26"/>
+      <c r="H208" s="6"/>
+      <c r="J208" s="15"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="30">
-        <v>17</v>
-      </c>
-      <c r="B209">
-        <v>201504</v>
-      </c>
-      <c r="C209" t="s">
-        <v>47</v>
-      </c>
-      <c r="D209" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E209" s="32">
-        <v>9</v>
-      </c>
-      <c r="F209" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H209" s="6">
-        <v>44210</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A209" s="28"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="26"/>
+      <c r="H209" s="6"/>
+      <c r="J209" s="15"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="30">
-        <v>21</v>
-      </c>
-      <c r="B210">
-        <v>704125</v>
-      </c>
-      <c r="C210" t="s">
-        <v>46</v>
-      </c>
-      <c r="D210" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E210" s="32">
-        <v>2</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="H210" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-      <c r="J210" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A210" s="28"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="26"/>
+      <c r="H210" s="6"/>
+      <c r="J210" s="15"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="30">
-        <v>22</v>
-      </c>
-      <c r="B211">
-        <v>801095</v>
-      </c>
-      <c r="C211" t="s">
-        <v>46</v>
-      </c>
-      <c r="D211" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E211" s="32">
-        <v>14</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="H211" s="6">
-        <v>44202</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A211" s="28"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="26"/>
+      <c r="H211" s="6"/>
+      <c r="J211" s="15"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="30">
-        <v>17</v>
-      </c>
-      <c r="B212">
-        <v>901393</v>
-      </c>
-      <c r="C212" t="s">
-        <v>46</v>
-      </c>
-      <c r="D212" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E212" s="32">
-        <v>12</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="H212" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A212" s="28"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="26"/>
+      <c r="H212" s="6"/>
+      <c r="J212" s="15"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="30">
-        <v>17</v>
-      </c>
-      <c r="B213">
-        <v>901393</v>
-      </c>
-      <c r="C213" t="s">
-        <v>47</v>
-      </c>
-      <c r="D213" s="31">
-        <v>44240</v>
-      </c>
-      <c r="E213" s="32">
-        <v>2</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="H213" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A213" s="28"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="26"/>
+      <c r="H213" s="6"/>
+      <c r="J213" s="15"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="30">
-        <v>17</v>
-      </c>
-      <c r="B214">
-        <v>901393</v>
-      </c>
-      <c r="C214" t="s">
-        <v>47</v>
-      </c>
-      <c r="D214" s="31">
-        <v>44242</v>
-      </c>
-      <c r="E214" s="32">
-        <v>7</v>
-      </c>
-      <c r="F214" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="H214" s="6">
-        <v>44219</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A214" s="28"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="26"/>
+      <c r="H214" s="6"/>
+      <c r="J214" s="15"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="30">
-        <v>22</v>
-      </c>
-      <c r="B215">
-        <v>800325</v>
-      </c>
-      <c r="C215" t="s">
-        <v>46</v>
-      </c>
-      <c r="D215" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E215" s="32">
-        <v>6</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="H215" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A215" s="28"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="26"/>
+      <c r="H215" s="6"/>
+      <c r="J215" s="15"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="30">
-        <v>6</v>
-      </c>
-      <c r="B216">
-        <v>30261</v>
-      </c>
-      <c r="C216" t="s">
-        <v>46</v>
-      </c>
-      <c r="D216" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E216" s="32">
-        <v>6</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="H216" s="6">
-        <v>44200</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A216" s="28"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="26"/>
+      <c r="H216" s="6"/>
+      <c r="J216" s="15"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="30">
-        <v>6</v>
-      </c>
-      <c r="B217">
-        <v>30261</v>
-      </c>
-      <c r="C217" t="s">
-        <v>47</v>
-      </c>
-      <c r="D217" s="31">
-        <v>44244</v>
-      </c>
-      <c r="E217" s="32">
-        <v>8</v>
-      </c>
-      <c r="F217" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H217" s="6">
-        <v>44206</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A217" s="28"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="26"/>
+      <c r="H217" s="6"/>
+      <c r="J217" s="15"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="30">
-        <v>21</v>
-      </c>
-      <c r="B218">
-        <v>700591</v>
-      </c>
-      <c r="C218" t="s">
-        <v>46</v>
-      </c>
-      <c r="D218" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E218" s="32">
-        <v>12</v>
-      </c>
-      <c r="F218" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="H218" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A218" s="28"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="26"/>
+      <c r="H218" s="6"/>
+      <c r="J218" s="15"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="30">
-        <v>12</v>
-      </c>
-      <c r="B219">
-        <v>93396</v>
-      </c>
-      <c r="C219" t="s">
-        <v>46</v>
-      </c>
-      <c r="D219" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E219" s="32">
-        <v>5</v>
-      </c>
-      <c r="F219" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="H219" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A219" s="28"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="26"/>
+      <c r="H219" s="6"/>
+      <c r="J219" s="15"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="30">
-        <v>12</v>
-      </c>
-      <c r="B220">
-        <v>93396</v>
-      </c>
-      <c r="C220" t="s">
-        <v>47</v>
-      </c>
-      <c r="D220" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E220" s="32">
-        <v>7</v>
-      </c>
-      <c r="F220" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="H220" s="6">
-        <v>44229</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A220" s="28"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="26"/>
+      <c r="H220" s="6"/>
+      <c r="J220" s="15"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="30">
-        <v>18</v>
-      </c>
-      <c r="B221">
-        <v>301150</v>
-      </c>
-      <c r="C221" t="s">
-        <v>46</v>
-      </c>
-      <c r="D221" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E221" s="32">
-        <v>7</v>
-      </c>
-      <c r="F221" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="H221" s="6">
-        <v>44225</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A221" s="28"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="26"/>
+      <c r="H221" s="6"/>
+      <c r="J221" s="15"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="30">
-        <v>12</v>
-      </c>
-      <c r="B222">
-        <v>91466</v>
-      </c>
-      <c r="C222" t="s">
-        <v>46</v>
-      </c>
-      <c r="D222" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E222" s="32">
-        <v>7</v>
-      </c>
-      <c r="F222" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="H222" s="6">
-        <v>44227</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="J222" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A222" s="28"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="26"/>
+      <c r="H222" s="6"/>
+      <c r="J222" s="15"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="30">
-        <v>21</v>
-      </c>
-      <c r="B223">
-        <v>702324</v>
-      </c>
-      <c r="C223" t="s">
-        <v>60</v>
-      </c>
-      <c r="D223" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E223" s="32">
-        <v>28</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="H223" s="6">
-        <v>44223</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A223" s="28"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="26"/>
+      <c r="H223" s="6"/>
+      <c r="J223" s="15"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="30">
-        <v>9</v>
-      </c>
-      <c r="B224">
-        <v>60776</v>
-      </c>
-      <c r="C224" t="s">
-        <v>46</v>
-      </c>
-      <c r="D224" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E224" s="32">
-        <v>11</v>
-      </c>
-      <c r="F224" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H224" s="6">
-        <v>44205</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A224" s="28"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="26"/>
+      <c r="H224" s="6"/>
+      <c r="J224" s="15"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="30">
-        <v>10</v>
-      </c>
-      <c r="B225">
-        <v>70084</v>
-      </c>
-      <c r="C225" t="s">
-        <v>46</v>
-      </c>
-      <c r="D225" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E225" s="32">
-        <v>3</v>
-      </c>
-      <c r="F225" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="H225" s="6">
-        <v>44230</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="J225" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A225" s="28"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="30"/>
+      <c r="F225" s="26"/>
+      <c r="H225" s="6"/>
+      <c r="J225" s="15"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="30">
-        <v>17</v>
-      </c>
-      <c r="B226">
-        <v>901445</v>
-      </c>
-      <c r="C226" t="s">
-        <v>47</v>
-      </c>
-      <c r="D226" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E226" s="32">
-        <v>1</v>
-      </c>
-      <c r="F226" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="H226" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A226" s="28"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="30"/>
+      <c r="F226" s="26"/>
+      <c r="H226" s="6"/>
+      <c r="J226" s="15"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="30">
-        <v>17</v>
-      </c>
-      <c r="B227">
-        <v>901445</v>
-      </c>
-      <c r="C227" t="s">
-        <v>46</v>
-      </c>
-      <c r="D227" s="31">
-        <v>44233</v>
-      </c>
-      <c r="E227" s="32">
-        <v>7</v>
-      </c>
-      <c r="F227" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="H227" s="6">
-        <v>44222</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A227" s="28"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="30"/>
+      <c r="F227" s="26"/>
+      <c r="H227" s="6"/>
+      <c r="J227" s="15"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="30">
-        <v>12</v>
-      </c>
-      <c r="B228">
-        <v>92391</v>
-      </c>
-      <c r="C228" t="s">
-        <v>46</v>
-      </c>
-      <c r="D228" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E228" s="32">
-        <v>5</v>
-      </c>
-      <c r="F228" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="H228" s="6">
-        <v>44196</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A228" s="28"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="30"/>
+      <c r="F228" s="26"/>
+      <c r="H228" s="6"/>
+      <c r="J228" s="15"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="30">
-        <v>17</v>
-      </c>
-      <c r="B229">
-        <v>202048</v>
-      </c>
-      <c r="C229" t="s">
-        <v>46</v>
-      </c>
-      <c r="D229" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E229" s="32">
-        <v>2</v>
-      </c>
-      <c r="F229" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="H229" s="6">
-        <v>44219</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A229" s="28"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="26"/>
+      <c r="H229" s="6"/>
+      <c r="J229" s="15"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="30">
-        <v>17</v>
-      </c>
-      <c r="B230">
-        <v>202048</v>
-      </c>
-      <c r="C230" t="s">
-        <v>46</v>
-      </c>
-      <c r="D230" s="31">
-        <v>44230</v>
-      </c>
-      <c r="E230" s="32">
-        <v>1</v>
-      </c>
-      <c r="F230" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="H230" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
-      <c r="J230" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A230" s="28"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="30"/>
+      <c r="F230" s="26"/>
+      <c r="H230" s="6"/>
+      <c r="J230" s="15"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="30">
-        <v>17</v>
-      </c>
-      <c r="B231">
-        <v>202048</v>
-      </c>
-      <c r="C231" t="s">
-        <v>46</v>
-      </c>
-      <c r="D231" s="31">
-        <v>44231</v>
-      </c>
-      <c r="E231" s="32">
-        <v>1</v>
-      </c>
-      <c r="F231" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="H231" s="6">
-        <v>44224</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="J231" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A231" s="28"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="26"/>
+      <c r="H231" s="6"/>
+      <c r="J231" s="15"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="30">
-        <v>7</v>
-      </c>
-      <c r="B232">
-        <v>40913</v>
-      </c>
-      <c r="C232" t="s">
-        <v>60</v>
-      </c>
-      <c r="D232" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E232" s="32">
-        <v>28</v>
-      </c>
-      <c r="F232" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="H232" s="6">
-        <v>44213</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A232" s="28"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="26"/>
+      <c r="H232" s="6"/>
+      <c r="J232" s="15"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="30">
-        <v>18</v>
-      </c>
-      <c r="B233">
-        <v>902344</v>
-      </c>
-      <c r="C233" t="s">
-        <v>47</v>
-      </c>
-      <c r="D233" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E233" s="32">
-        <v>4</v>
-      </c>
-      <c r="F233" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="H233" s="6">
-        <v>44217</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A233" s="28"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="30"/>
+      <c r="F233" s="26"/>
+      <c r="H233" s="6"/>
+      <c r="J233" s="15"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="30">
-        <v>18</v>
-      </c>
-      <c r="B234">
-        <v>902344</v>
-      </c>
-      <c r="C234" t="s">
-        <v>47</v>
-      </c>
-      <c r="D234" s="31">
-        <v>44232</v>
-      </c>
-      <c r="E234" s="32">
-        <v>2</v>
-      </c>
-      <c r="F234" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="H234" s="6">
-        <v>44221</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="J234" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A234" s="28"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="26"/>
+      <c r="H234" s="6"/>
+      <c r="J234" s="15"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="30">
-        <v>21</v>
-      </c>
-      <c r="B235">
-        <v>702195</v>
-      </c>
-      <c r="C235" t="s">
-        <v>46</v>
-      </c>
-      <c r="D235" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E235" s="32">
-        <v>2</v>
-      </c>
-      <c r="F235" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H235" s="6">
-        <v>44215</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A235" s="28"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="26"/>
+      <c r="H235" s="6"/>
+      <c r="J235" s="15"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="30">
-        <v>21</v>
-      </c>
-      <c r="B236">
-        <v>702268</v>
-      </c>
-      <c r="C236" t="s">
-        <v>46</v>
-      </c>
-      <c r="D236" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E236" s="32">
-        <v>3</v>
-      </c>
-      <c r="F236" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="H236" s="6">
-        <v>44226</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A236" s="28"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="26"/>
+      <c r="H236" s="6"/>
+      <c r="J236" s="15"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="30">
-        <v>17</v>
-      </c>
-      <c r="B237">
-        <v>202352</v>
-      </c>
-      <c r="C237" t="s">
-        <v>46</v>
-      </c>
-      <c r="D237" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E237" s="32">
-        <v>12</v>
-      </c>
-      <c r="F237" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="H237" s="6">
-        <v>44207</v>
-      </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="J237" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A237" s="28"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="30"/>
+      <c r="F237" s="26"/>
+      <c r="H237" s="6"/>
+      <c r="J237" s="15"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="30">
-        <v>16</v>
-      </c>
-      <c r="B238">
-        <v>130913</v>
-      </c>
-      <c r="C238" t="s">
-        <v>46</v>
-      </c>
-      <c r="D238" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E238" s="32">
-        <v>5</v>
-      </c>
-      <c r="F238" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="H238" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
-      <c r="J238" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A238" s="28"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="26"/>
+      <c r="H238" s="6"/>
+      <c r="J238" s="15"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="30">
-        <v>21</v>
-      </c>
-      <c r="B239">
-        <v>901094</v>
-      </c>
-      <c r="C239" t="s">
-        <v>46</v>
-      </c>
-      <c r="D239" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E239" s="32">
-        <v>12</v>
-      </c>
-      <c r="F239" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="H239" s="6">
-        <v>44208</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A239" s="28"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="26"/>
+      <c r="H239" s="6"/>
+      <c r="J239" s="15"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="30">
-        <v>20</v>
-      </c>
-      <c r="B240">
-        <v>600248</v>
-      </c>
-      <c r="C240" t="s">
-        <v>47</v>
-      </c>
-      <c r="D240" s="31">
-        <v>44228</v>
-      </c>
-      <c r="E240" s="32">
-        <v>5</v>
-      </c>
-      <c r="F240" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="H240" s="6">
-        <v>44216</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A240" s="28"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="26"/>
+      <c r="H240" s="6"/>
+      <c r="J240" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -15998,7 +10283,7 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16681,8 +10966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16703,34 +10988,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -16763,6 +11049,9 @@
       <c r="J3" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -16795,6 +11084,9 @@
       <c r="J4" s="17">
         <v>44180</v>
       </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -16827,20 +11119,23 @@
       <c r="J5" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="K5" s="14" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -16935,18 +11230,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -17042,22 +11337,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -17148,18 +11443,18 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -17211,10 +11506,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\Server\Seri\Payroll\Content\FilesCargaMasivaIncidencias\FormatoDeIncidencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejia\Desktop\Server IPSNet\Seri\Payroll\Content\FilesCargaMasivaIncidencias\FormatoDeIncidencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78573065-4AC8-485E-A19D-CC11BCED2264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
@@ -392,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -511,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -593,21 +594,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,9 +673,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,11 +989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1008,9 @@
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1044,7 @@
       <c r="J1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1420,13 +1412,13 @@
       <c r="D122" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -3392,7 +3384,7 @@
       <c r="J240" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3400,7 +3392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10279,7 +10271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10732,7 +10724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10790,7 +10782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10963,11 +10955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Incidencias.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejia\Desktop\Server IPSNet\Seri\Payroll\Content\FilesCargaMasivaIncidencias\FormatoDeIncidencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\Server\Seri\Payroll\Content\FilesCargaMasivaIncidencias\FormatoDeIncidencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78573065-4AC8-485E-A19D-CC11BCED2264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Incidencia" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
   <si>
     <t>Empresa_id</t>
   </si>
@@ -389,15 +388,22 @@
   <si>
     <t xml:space="preserve">Por default ira en cero y solo se modificara para los renglones que aplique. </t>
   </si>
+  <si>
+    <t>Periodo_especial</t>
+  </si>
+  <si>
+    <t>0 = Carga para una nomina normal
+1 = Carga para Nomina en periodo especial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +479,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -594,12 +613,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +703,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1047,11 @@
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,50 +1085,53 @@
       <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1412,17 +1453,17 @@
       <c r="D122" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J240"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3425,7 @@
       <c r="J240" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3392,7 +3433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10271,7 +10312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10724,7 +10765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10782,11 +10823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10883,30 +10924,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -10955,11 +11001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,41 +11020,42 @@
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -11044,6 +11091,9 @@
       <c r="K3" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -11079,6 +11129,9 @@
       <c r="K4" s="15">
         <v>0</v>
       </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11114,20 +11167,23 @@
       <c r="K5" s="14" t="s">
         <v>110</v>
       </c>
+      <c r="L5" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -11222,18 +11278,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -11329,22 +11385,22 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -11435,18 +11491,18 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
